--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_23_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_23_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>27590.81648737699</v>
+        <v>18192.46634604852</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12582092.0112902</v>
+        <v>12582215.32155233</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3424352.131779877</v>
+        <v>3424335.946945639</v>
       </c>
     </row>
     <row r="11">
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.021643902788007</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.536891551628983</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>15.49488714450009</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>18.21830727030009</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>18.21830727030009</v>
+        <v>16.04668504368034</v>
       </c>
       <c r="U2" t="n">
-        <v>13.21156971506333</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -752,10 +752,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.201960398177218</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>18.21830727030009</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -782,22 +782,22 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.504190801070983</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>13.34053384443212</v>
       </c>
       <c r="S3" t="n">
-        <v>18.21830727030009</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="T3" t="n">
-        <v>18.21830727030009</v>
+        <v>2.706151199248216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>0.5891238419305889</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -855,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5891238419305853</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>18.21830727030009</v>
+        <v>18.2183072703001</v>
       </c>
       <c r="C5" t="n">
-        <v>18.21830727030009</v>
+        <v>13.50979349205135</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>18.2183072703001</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>18.2183072703001</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>2.536891551628976</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>16.04668504368032</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>18.21830727030009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -983,22 +983,22 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>18.21830727030009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>18.21830727030009</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>18.21830727030009</v>
+        <v>18.2183072703001</v>
       </c>
       <c r="H6" t="n">
-        <v>11.15822662489535</v>
+        <v>18.2183072703001</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>4.888458418784966</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1019,13 +1019,13 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>1.50419080107098</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>14.54249424260934</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>18.2183072703001</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1086,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.5891238419305853</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>0.5891238419305889</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1144,19 +1144,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>22.50923875973925</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>23.50971295904439</v>
+        <v>5.971114873554879</v>
       </c>
       <c r="H8" t="n">
-        <v>23.50971295904439</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>21.70782937363143</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1.027774177190928</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>14.01919626068103</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>23.86249467691514</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>23.86249467691514</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>23.86249467691514</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1217,22 +1217,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>23.86249467691514</v>
       </c>
       <c r="E9" t="n">
-        <v>23.50971295904439</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.50971295904439</v>
+        <v>23.86249467691514</v>
       </c>
       <c r="G9" t="n">
-        <v>23.50971295904439</v>
+        <v>23.86249467691514</v>
       </c>
       <c r="H9" t="n">
-        <v>10.67035361428236</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>10.03700156004394</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1265,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>21.01808531142686</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>3.183833028195936</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>3.479784596074287</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>88.09368046800154</v>
       </c>
       <c r="E11" t="n">
-        <v>77.59291375621572</v>
+        <v>88.09368046800154</v>
       </c>
       <c r="F11" t="n">
-        <v>88.09368046800149</v>
+        <v>77.59291375621575</v>
       </c>
       <c r="G11" t="n">
-        <v>88.09368046800149</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>88.09368046800149</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>88.09368046800154</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1451,16 +1451,16 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>88.09368046800149</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>88.09368046800149</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>88.09368046800149</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>12.8837153427044</v>
+        <v>88.09368046800154</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1502,16 +1502,16 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>88.09368046800154</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>88.09368046800154</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>12.88371534270431</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>76.72452921209067</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>76.72452921209064</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1618,16 +1618,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>88.09368046800154</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>88.09368046800154</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>88.09368046800154</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>13.04715655754853</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>88.09368046800151</v>
+        <v>64.54575719866722</v>
       </c>
       <c r="T14" t="n">
-        <v>88.09368046800151</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>77.59291375621569</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>88.09368046800151</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1685,22 +1685,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>12.88371534270434</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>88.09368046800151</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>88.09368046800151</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>88.09368046800151</v>
+        <v>88.09368046800154</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>12.88371534270431</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>88.09368046800154</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1739,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>88.09368046800154</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>76.72452921209064</v>
+        <v>76.72452921209067</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1855,10 +1855,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>380.8921993180109</v>
+        <v>240.8713879392747</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>398.0762984870881</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>52.74965212647636</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.0010086278747</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.5938104456032</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
@@ -1934,13 +1934,13 @@
         <v>103.6549143897921</v>
       </c>
       <c r="F18" t="n">
-        <v>37.55859129566444</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G18" t="n">
-        <v>91.92526226042889</v>
+        <v>77.32477589699403</v>
       </c>
       <c r="H18" t="n">
-        <v>41.36902567056268</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>58.44494974266424</v>
+        <v>58.45428163141899</v>
       </c>
       <c r="T18" t="n">
-        <v>135.6727763101777</v>
+        <v>135.674801341055</v>
       </c>
       <c r="U18" t="n">
-        <v>182.8423580798134</v>
+        <v>182.8423911325481</v>
       </c>
       <c r="V18" t="n">
         <v>202.9234074721264</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>54.83580462060499</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>151.0769061989316</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>236.6523070691268</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2064,13 +2064,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>92.79591589484721</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>105.8514340651613</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>237.5277355071034</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
         <v>421.717170453621</v>
@@ -2095,7 +2095,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>398.0762984870881</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>52.74965212647636</v>
       </c>
       <c r="T20" t="n">
-        <v>208.9968982185809</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2168,16 +2168,16 @@
         <v>102.8015588998678</v>
       </c>
       <c r="E21" t="n">
-        <v>103.6549143897921</v>
+        <v>47.68004781277831</v>
       </c>
       <c r="F21" t="n">
         <v>92.70937201392488</v>
       </c>
       <c r="G21" t="n">
-        <v>91.92526226042889</v>
+        <v>91.92576466199586</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>41.37387781201203</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,13 +2210,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>44.66319469496669</v>
+        <v>58.45428163141899</v>
       </c>
       <c r="T21" t="n">
-        <v>135.6727763101777</v>
+        <v>135.674801341055</v>
       </c>
       <c r="U21" t="n">
-        <v>182.8423580798134</v>
+        <v>182.8423911325481</v>
       </c>
       <c r="V21" t="n">
         <v>202.9234074721264</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>133.5070994489845</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>193.7960438429578</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2301,13 +2301,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>3.734564505125902</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2320,16 +2320,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>51.29628209397736</v>
       </c>
       <c r="T23" t="n">
-        <v>208.7218148893222</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>255.5887081042933</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>28.64968607284242</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>350.2646431517187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2414,7 +2414,7 @@
         <v>91.89163974602977</v>
       </c>
       <c r="H24" t="n">
-        <v>41.04430296570798</v>
+        <v>41.04430296570794</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2481,16 +2481,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.5702563680571</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>150.5856664684936</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>11.73069482045092</v>
       </c>
       <c r="U25" t="n">
-        <v>271.2612705660949</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>353.141364912069</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>284.2383941771366</v>
       </c>
       <c r="H26" t="n">
-        <v>271.5073585269046</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>51.29628209397736</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>255.5887081042933</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>57.82042628441737</v>
+        <v>57.82042628441735</v>
       </c>
       <c r="T27" t="n">
         <v>135.5372539824022</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.5702563680571</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>133.2527378018481</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>67.97209018366931</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>131.2346897866121</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2775,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>169.7775958326054</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>102.7135475519859</v>
       </c>
       <c r="G29" t="n">
-        <v>146.9043874343016</v>
+        <v>398.012519220714</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>271.5073585269046</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>51.29628209397736</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>208.7218148893222</v>
       </c>
       <c r="U29" t="n">
         <v>255.5887081042933</v>
@@ -2854,13 +2854,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -2888,7 +2888,7 @@
         <v>91.89163974602977</v>
       </c>
       <c r="H30" t="n">
-        <v>41.04430296570791</v>
+        <v>41.04430296570798</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>57.82042628441737</v>
+        <v>57.82042628441735</v>
       </c>
       <c r="T30" t="n">
         <v>135.5372539824022</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>75.11689214270967</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>144.2192796861757</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>133.2527378018481</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>67.97209018366931</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>150.5856664684936</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>96.39464605271478</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>127.6343685298732</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>398.012519220714</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>51.29628209397736</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>208.7218148893222</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.5887081042933</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
         <v>392.4274362026566</v>
@@ -3192,22 +3192,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>144.2192796861757</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>133.2527378018481</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>67.97209018366931</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>150.5856664684936</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3246,16 +3246,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>85.93802506833813</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>398.012519220714</v>
       </c>
       <c r="H35" t="n">
-        <v>245.8669729807112</v>
+        <v>271.5073585269046</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3328,10 +3328,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>361.6184540038891</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.7775958326054</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.5702563680571</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>133.2527378018481</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>67.97209018366931</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3267416342995</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3489,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>180.1376770854846</v>
       </c>
     </row>
     <row r="38">
@@ -3505,22 +3505,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>27.75995949313446</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>271.5073585269046</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>51.29628209397736</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>41.95582820782027</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3596,7 +3596,7 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G39" t="n">
-        <v>91.8916397460297</v>
+        <v>91.89163974602977</v>
       </c>
       <c r="H39" t="n">
         <v>41.04430296570798</v>
@@ -3663,19 +3663,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>20.49439114172012</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>163.5702563680571</v>
+        <v>90.95120068553237</v>
       </c>
       <c r="H40" t="n">
         <v>133.2527378018481</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>150.5856664684936</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3267416342995</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
@@ -3754,7 +3754,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>398.012519220714</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3793,13 +3793,13 @@
         <v>51.29628209397736</v>
       </c>
       <c r="T41" t="n">
-        <v>115.0042494625633</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>255.5887081042933</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>28.64968607284287</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3833,7 +3833,7 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G42" t="n">
-        <v>91.89163974602971</v>
+        <v>91.89163974602977</v>
       </c>
       <c r="H42" t="n">
         <v>41.04430296570798</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.5702563680571</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>133.2527378018481</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>67.97209018366931</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>150.5856664684936</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>142.3326284626156</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>191.6384767693285</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>154.0098296459636</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3991,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>369.2380905286396</v>
+        <v>398.012519220714</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>271.5073585269046</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,19 +4030,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>208.7218148893222</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.5887081042933</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4073,7 +4073,7 @@
         <v>91.89163974602977</v>
       </c>
       <c r="H45" t="n">
-        <v>41.04430296570798</v>
+        <v>41.04430296570791</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4143,13 +4143,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>101.8072770298462</v>
+        <v>103.3170071454325</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>150.5856664684936</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>236.5300678317505</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.509630139995732</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="C2" t="n">
-        <v>4.509630139995732</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="D2" t="n">
-        <v>4.509630139995732</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="E2" t="n">
-        <v>4.509630139995732</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="F2" t="n">
-        <v>4.509630139995732</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="G2" t="n">
-        <v>4.509630139995732</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="H2" t="n">
-        <v>4.509630139995732</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="I2" t="n">
-        <v>4.509630139995732</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="J2" t="n">
-        <v>1.457464581624007</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="K2" t="n">
-        <v>5.219099475992264</v>
+        <v>5.219099475992266</v>
       </c>
       <c r="L2" t="n">
-        <v>15.88227649088179</v>
+        <v>15.88227649088181</v>
       </c>
       <c r="M2" t="n">
-        <v>32.89339907886386</v>
+        <v>32.89339907886389</v>
       </c>
       <c r="N2" t="n">
-        <v>50.92952327646096</v>
+        <v>50.92952327646103</v>
       </c>
       <c r="O2" t="n">
-        <v>65.79354395927294</v>
+        <v>65.79354395927301</v>
       </c>
       <c r="P2" t="n">
-        <v>72.87322908120036</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="Q2" t="n">
-        <v>70.31071236238321</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="R2" t="n">
-        <v>54.65931120632251</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="S2" t="n">
-        <v>36.25698063026181</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="T2" t="n">
-        <v>17.85465005420112</v>
+        <v>56.66445630980617</v>
       </c>
       <c r="U2" t="n">
-        <v>4.509630139995732</v>
+        <v>56.66445630980617</v>
       </c>
       <c r="V2" t="n">
-        <v>4.509630139995732</v>
+        <v>38.26212573374545</v>
       </c>
       <c r="W2" t="n">
-        <v>4.509630139995732</v>
+        <v>19.85979515768473</v>
       </c>
       <c r="X2" t="n">
-        <v>4.509630139995732</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.509630139995732</v>
+        <v>1.457464581624009</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.07389656998492</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="C3" t="n">
-        <v>21.07389656998492</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="D3" t="n">
-        <v>21.07389656998492</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="E3" t="n">
-        <v>21.07389656998492</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="F3" t="n">
-        <v>21.07389656998492</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="G3" t="n">
-        <v>19.8597951576847</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="H3" t="n">
-        <v>1.457464581624007</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="I3" t="n">
-        <v>1.457464581624007</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="J3" t="n">
-        <v>1.457464581624007</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="K3" t="n">
-        <v>5.886021080118643</v>
+        <v>5.886021080118652</v>
       </c>
       <c r="L3" t="n">
-        <v>19.36817474787377</v>
+        <v>19.36817474787378</v>
       </c>
       <c r="M3" t="n">
-        <v>28.67140894156418</v>
+        <v>37.4042989454709</v>
       </c>
       <c r="N3" t="n">
-        <v>46.70753313916127</v>
+        <v>55.44042314306801</v>
       </c>
       <c r="O3" t="n">
-        <v>62.96599962173939</v>
+        <v>71.69888962564613</v>
       </c>
       <c r="P3" t="n">
-        <v>72.87322908120036</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="Q3" t="n">
-        <v>71.35384443365392</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="R3" t="n">
-        <v>57.87855772210632</v>
+        <v>59.39794236965285</v>
       </c>
       <c r="S3" t="n">
-        <v>39.47622714604562</v>
+        <v>40.99561179359213</v>
       </c>
       <c r="T3" t="n">
-        <v>21.07389656998492</v>
+        <v>38.26212573374545</v>
       </c>
       <c r="U3" t="n">
-        <v>21.07389656998492</v>
+        <v>38.26212573374545</v>
       </c>
       <c r="V3" t="n">
-        <v>21.07389656998492</v>
+        <v>19.85979515768473</v>
       </c>
       <c r="W3" t="n">
-        <v>21.07389656998492</v>
+        <v>19.85979515768473</v>
       </c>
       <c r="X3" t="n">
-        <v>21.07389656998492</v>
+        <v>19.85979515768473</v>
       </c>
       <c r="Y3" t="n">
-        <v>21.07389656998492</v>
+        <v>19.85979515768473</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.457464581624007</v>
+        <v>2.052539169432685</v>
       </c>
       <c r="C4" t="n">
-        <v>1.457464581624007</v>
+        <v>2.052539169432685</v>
       </c>
       <c r="D4" t="n">
-        <v>1.457464581624007</v>
+        <v>2.052539169432685</v>
       </c>
       <c r="E4" t="n">
-        <v>1.457464581624007</v>
+        <v>2.052539169432685</v>
       </c>
       <c r="F4" t="n">
-        <v>1.457464581624007</v>
+        <v>2.052539169432685</v>
       </c>
       <c r="G4" t="n">
-        <v>1.457464581624007</v>
+        <v>2.052539169432685</v>
       </c>
       <c r="H4" t="n">
-        <v>1.457464581624007</v>
+        <v>2.052539169432685</v>
       </c>
       <c r="I4" t="n">
-        <v>1.457464581624007</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="J4" t="n">
-        <v>1.457464581624007</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="K4" t="n">
-        <v>1.457464581624007</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="L4" t="n">
-        <v>1.457464581624007</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="M4" t="n">
-        <v>1.457464581624007</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="N4" t="n">
-        <v>2.052539169432679</v>
+        <v>2.052539169432685</v>
       </c>
       <c r="O4" t="n">
-        <v>1.457464581624007</v>
+        <v>2.052539169432685</v>
       </c>
       <c r="P4" t="n">
-        <v>1.457464581624007</v>
+        <v>2.052539169432685</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.457464581624007</v>
+        <v>2.052539169432685</v>
       </c>
       <c r="R4" t="n">
-        <v>1.457464581624007</v>
+        <v>2.052539169432685</v>
       </c>
       <c r="S4" t="n">
-        <v>1.457464581624007</v>
+        <v>2.052539169432685</v>
       </c>
       <c r="T4" t="n">
-        <v>1.457464581624007</v>
+        <v>2.052539169432685</v>
       </c>
       <c r="U4" t="n">
-        <v>1.457464581624007</v>
+        <v>2.052539169432685</v>
       </c>
       <c r="V4" t="n">
-        <v>1.457464581624007</v>
+        <v>2.052539169432685</v>
       </c>
       <c r="W4" t="n">
-        <v>1.457464581624007</v>
+        <v>2.052539169432685</v>
       </c>
       <c r="X4" t="n">
-        <v>1.457464581624007</v>
+        <v>2.052539169432685</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.457464581624007</v>
+        <v>2.052539169432685</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19.8597951576847</v>
+        <v>51.90838178632255</v>
       </c>
       <c r="C5" t="n">
-        <v>1.457464581624007</v>
+        <v>38.26212573374543</v>
       </c>
       <c r="D5" t="n">
-        <v>1.457464581624007</v>
+        <v>38.26212573374543</v>
       </c>
       <c r="E5" t="n">
-        <v>1.457464581624007</v>
+        <v>19.85979515768472</v>
       </c>
       <c r="F5" t="n">
-        <v>1.457464581624007</v>
+        <v>1.457464581624008</v>
       </c>
       <c r="G5" t="n">
-        <v>1.457464581624007</v>
+        <v>1.457464581624008</v>
       </c>
       <c r="H5" t="n">
-        <v>1.457464581624007</v>
+        <v>1.457464581624008</v>
       </c>
       <c r="I5" t="n">
-        <v>1.457464581624007</v>
+        <v>1.457464581624008</v>
       </c>
       <c r="J5" t="n">
-        <v>1.457464581624007</v>
+        <v>1.457464581624008</v>
       </c>
       <c r="K5" t="n">
-        <v>5.219099475992266</v>
+        <v>5.219099475992265</v>
       </c>
       <c r="L5" t="n">
-        <v>15.88227649088179</v>
+        <v>15.88227649088181</v>
       </c>
       <c r="M5" t="n">
-        <v>32.89339907886386</v>
+        <v>32.89339907886389</v>
       </c>
       <c r="N5" t="n">
-        <v>50.92952327646095</v>
+        <v>50.92952327646098</v>
       </c>
       <c r="O5" t="n">
-        <v>65.79354395927294</v>
+        <v>65.79354395927297</v>
       </c>
       <c r="P5" t="n">
-        <v>72.87322908120036</v>
+        <v>72.87322908120041</v>
       </c>
       <c r="Q5" t="n">
-        <v>72.87322908120036</v>
+        <v>70.31071236238326</v>
       </c>
       <c r="R5" t="n">
-        <v>72.87322908120036</v>
+        <v>70.31071236238326</v>
       </c>
       <c r="S5" t="n">
-        <v>72.87322908120036</v>
+        <v>70.31071236238326</v>
       </c>
       <c r="T5" t="n">
-        <v>72.87322908120036</v>
+        <v>70.31071236238326</v>
       </c>
       <c r="U5" t="n">
-        <v>72.87322908120036</v>
+        <v>70.31071236238326</v>
       </c>
       <c r="V5" t="n">
-        <v>72.87322908120036</v>
+        <v>70.31071236238326</v>
       </c>
       <c r="W5" t="n">
-        <v>72.87322908120036</v>
+        <v>70.31071236238326</v>
       </c>
       <c r="X5" t="n">
-        <v>56.66445630980611</v>
+        <v>70.31071236238326</v>
       </c>
       <c r="Y5" t="n">
-        <v>38.26212573374541</v>
+        <v>70.31071236238326</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>72.87322908120036</v>
+        <v>38.26212573374543</v>
       </c>
       <c r="C6" t="n">
-        <v>72.87322908120036</v>
+        <v>38.26212573374543</v>
       </c>
       <c r="D6" t="n">
-        <v>72.87322908120036</v>
+        <v>38.26212573374543</v>
       </c>
       <c r="E6" t="n">
-        <v>54.47089850513967</v>
+        <v>38.26212573374543</v>
       </c>
       <c r="F6" t="n">
-        <v>36.06856792907897</v>
+        <v>38.26212573374543</v>
       </c>
       <c r="G6" t="n">
-        <v>17.66623735301827</v>
+        <v>19.85979515768472</v>
       </c>
       <c r="H6" t="n">
-        <v>6.395301368275488</v>
+        <v>1.457464581624008</v>
       </c>
       <c r="I6" t="n">
-        <v>6.395301368275488</v>
+        <v>1.457464581624008</v>
       </c>
       <c r="J6" t="n">
-        <v>1.457464581624007</v>
+        <v>1.457464581624008</v>
       </c>
       <c r="K6" t="n">
-        <v>5.886021080118643</v>
+        <v>5.886021080118651</v>
       </c>
       <c r="L6" t="n">
-        <v>19.36817474787377</v>
+        <v>19.36817474787378</v>
       </c>
       <c r="M6" t="n">
-        <v>28.67140894156418</v>
+        <v>37.40429894547088</v>
       </c>
       <c r="N6" t="n">
-        <v>46.70753313916127</v>
+        <v>55.44042314306799</v>
       </c>
       <c r="O6" t="n">
-        <v>62.96599962173939</v>
+        <v>62.96599962173943</v>
       </c>
       <c r="P6" t="n">
-        <v>72.87322908120036</v>
+        <v>72.87322908120041</v>
       </c>
       <c r="Q6" t="n">
-        <v>72.87322908120036</v>
+        <v>71.35384443365396</v>
       </c>
       <c r="R6" t="n">
-        <v>72.87322908120036</v>
+        <v>71.35384443365396</v>
       </c>
       <c r="S6" t="n">
-        <v>72.87322908120036</v>
+        <v>56.66445630980614</v>
       </c>
       <c r="T6" t="n">
-        <v>72.87322908120036</v>
+        <v>56.66445630980614</v>
       </c>
       <c r="U6" t="n">
-        <v>72.87322908120036</v>
+        <v>56.66445630980614</v>
       </c>
       <c r="V6" t="n">
-        <v>72.87322908120036</v>
+        <v>38.26212573374543</v>
       </c>
       <c r="W6" t="n">
-        <v>72.87322908120036</v>
+        <v>38.26212573374543</v>
       </c>
       <c r="X6" t="n">
-        <v>72.87322908120036</v>
+        <v>38.26212573374543</v>
       </c>
       <c r="Y6" t="n">
-        <v>72.87322908120036</v>
+        <v>38.26212573374543</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.052539169432679</v>
+        <v>1.457464581624008</v>
       </c>
       <c r="C7" t="n">
-        <v>2.052539169432679</v>
+        <v>1.457464581624008</v>
       </c>
       <c r="D7" t="n">
-        <v>2.052539169432679</v>
+        <v>1.457464581624008</v>
       </c>
       <c r="E7" t="n">
-        <v>2.052539169432679</v>
+        <v>1.457464581624008</v>
       </c>
       <c r="F7" t="n">
-        <v>2.052539169432679</v>
+        <v>1.457464581624008</v>
       </c>
       <c r="G7" t="n">
-        <v>2.052539169432679</v>
+        <v>1.457464581624008</v>
       </c>
       <c r="H7" t="n">
-        <v>2.052539169432679</v>
+        <v>1.457464581624008</v>
       </c>
       <c r="I7" t="n">
-        <v>2.052539169432679</v>
+        <v>1.457464581624008</v>
       </c>
       <c r="J7" t="n">
-        <v>2.052539169432679</v>
+        <v>1.457464581624008</v>
       </c>
       <c r="K7" t="n">
-        <v>2.052539169432679</v>
+        <v>1.457464581624008</v>
       </c>
       <c r="L7" t="n">
-        <v>2.052539169432679</v>
+        <v>1.457464581624008</v>
       </c>
       <c r="M7" t="n">
-        <v>1.457464581624007</v>
+        <v>1.457464581624008</v>
       </c>
       <c r="N7" t="n">
-        <v>2.052539169432679</v>
+        <v>2.052539169432684</v>
       </c>
       <c r="O7" t="n">
-        <v>2.052539169432679</v>
+        <v>2.052539169432684</v>
       </c>
       <c r="P7" t="n">
-        <v>2.052539169432679</v>
+        <v>2.052539169432684</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.052539169432679</v>
+        <v>2.052539169432684</v>
       </c>
       <c r="R7" t="n">
-        <v>2.052539169432679</v>
+        <v>2.052539169432684</v>
       </c>
       <c r="S7" t="n">
-        <v>2.052539169432679</v>
+        <v>1.457464581624008</v>
       </c>
       <c r="T7" t="n">
-        <v>2.052539169432679</v>
+        <v>1.457464581624008</v>
       </c>
       <c r="U7" t="n">
-        <v>2.052539169432679</v>
+        <v>1.457464581624008</v>
       </c>
       <c r="V7" t="n">
-        <v>2.052539169432679</v>
+        <v>1.457464581624008</v>
       </c>
       <c r="W7" t="n">
-        <v>2.052539169432679</v>
+        <v>1.457464581624008</v>
       </c>
       <c r="X7" t="n">
-        <v>2.052539169432679</v>
+        <v>1.457464581624008</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.052539169432679</v>
+        <v>1.457464581624008</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>94.03885183617754</v>
+        <v>8.978584473896451</v>
       </c>
       <c r="C8" t="n">
-        <v>94.03885183617754</v>
+        <v>8.978584473896451</v>
       </c>
       <c r="D8" t="n">
-        <v>94.03885183617754</v>
+        <v>8.978584473896451</v>
       </c>
       <c r="E8" t="n">
-        <v>94.03885183617756</v>
+        <v>8.978584473896451</v>
       </c>
       <c r="F8" t="n">
-        <v>71.30224702836013</v>
+        <v>8.978584473896451</v>
       </c>
       <c r="G8" t="n">
-        <v>47.55506222124458</v>
+        <v>2.947155308689502</v>
       </c>
       <c r="H8" t="n">
-        <v>23.80787741412904</v>
+        <v>2.947155308689502</v>
       </c>
       <c r="I8" t="n">
-        <v>1.880777036723551</v>
+        <v>2.947155308689502</v>
       </c>
       <c r="J8" t="n">
-        <v>1.880777036723551</v>
+        <v>1.908999574153212</v>
       </c>
       <c r="K8" t="n">
-        <v>8.4159116854429</v>
+        <v>8.629045391172411</v>
       </c>
       <c r="L8" t="n">
-        <v>22.51986039522949</v>
+        <v>22.96239275619894</v>
       </c>
       <c r="M8" t="n">
-        <v>43.35950445951396</v>
+        <v>44.05728702482669</v>
       </c>
       <c r="N8" t="n">
-        <v>65.28609961349601</v>
+        <v>66.2432625983141</v>
       </c>
       <c r="O8" t="n">
-        <v>83.82378169965439</v>
+        <v>85.02587025944868</v>
       </c>
       <c r="P8" t="n">
-        <v>94.03885183617754</v>
+        <v>95.44997870766058</v>
       </c>
       <c r="Q8" t="n">
-        <v>94.03885183617754</v>
+        <v>95.44997870766058</v>
       </c>
       <c r="R8" t="n">
-        <v>94.03885183617754</v>
+        <v>81.28917440394235</v>
       </c>
       <c r="S8" t="n">
-        <v>94.03885183617754</v>
+        <v>57.18564442726039</v>
       </c>
       <c r="T8" t="n">
-        <v>94.03885183617754</v>
+        <v>33.08211445057842</v>
       </c>
       <c r="U8" t="n">
-        <v>94.03885183617754</v>
+        <v>8.978584473896451</v>
       </c>
       <c r="V8" t="n">
-        <v>94.03885183617754</v>
+        <v>8.978584473896451</v>
       </c>
       <c r="W8" t="n">
-        <v>94.03885183617754</v>
+        <v>8.978584473896451</v>
       </c>
       <c r="X8" t="n">
-        <v>94.03885183617754</v>
+        <v>8.978584473896451</v>
       </c>
       <c r="Y8" t="n">
-        <v>94.03885183617754</v>
+        <v>8.978584473896451</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>94.03885183617756</v>
+        <v>74.21958950419911</v>
       </c>
       <c r="C9" t="n">
-        <v>94.03885183617756</v>
+        <v>74.21958950419911</v>
       </c>
       <c r="D9" t="n">
-        <v>94.03885183617756</v>
+        <v>50.11605952751714</v>
       </c>
       <c r="E9" t="n">
-        <v>70.29166702906201</v>
+        <v>50.11605952751714</v>
       </c>
       <c r="F9" t="n">
-        <v>46.54448222194647</v>
+        <v>26.01252955083518</v>
       </c>
       <c r="G9" t="n">
-        <v>22.79729741483092</v>
+        <v>1.908999574153212</v>
       </c>
       <c r="H9" t="n">
-        <v>12.01916245090935</v>
+        <v>1.908999574153212</v>
       </c>
       <c r="I9" t="n">
-        <v>1.880777036723551</v>
+        <v>1.908999574153212</v>
       </c>
       <c r="J9" t="n">
-        <v>1.880777036723551</v>
+        <v>1.908999574153212</v>
       </c>
       <c r="K9" t="n">
-        <v>8.193129398185485</v>
+        <v>8.346945923252324</v>
       </c>
       <c r="L9" t="n">
-        <v>24.20827907854881</v>
+        <v>24.53097221925459</v>
       </c>
       <c r="M9" t="n">
-        <v>46.0426944477166</v>
+        <v>46.56245863347765</v>
       </c>
       <c r="N9" t="n">
-        <v>69.31731027717055</v>
+        <v>63.8481126823026</v>
       </c>
       <c r="O9" t="n">
-        <v>81.90393668038418</v>
+        <v>83.06725959038364</v>
       </c>
       <c r="P9" t="n">
-        <v>94.03885183617756</v>
+        <v>95.35069610950775</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.03885183617756</v>
+        <v>95.44997870766058</v>
       </c>
       <c r="R9" t="n">
-        <v>94.03885183617756</v>
+        <v>95.44997870766058</v>
       </c>
       <c r="S9" t="n">
-        <v>94.03885183617756</v>
+        <v>95.44997870766058</v>
       </c>
       <c r="T9" t="n">
-        <v>94.03885183617756</v>
+        <v>74.21958950419911</v>
       </c>
       <c r="U9" t="n">
-        <v>94.03885183617756</v>
+        <v>74.21958950419911</v>
       </c>
       <c r="V9" t="n">
-        <v>94.03885183617756</v>
+        <v>74.21958950419911</v>
       </c>
       <c r="W9" t="n">
-        <v>94.03885183617756</v>
+        <v>74.21958950419911</v>
       </c>
       <c r="X9" t="n">
-        <v>94.03885183617756</v>
+        <v>74.21958950419911</v>
       </c>
       <c r="Y9" t="n">
-        <v>94.03885183617756</v>
+        <v>74.21958950419911</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.096769994497224</v>
+        <v>1.908999574153212</v>
       </c>
       <c r="C10" t="n">
-        <v>5.096769994497224</v>
+        <v>1.908999574153212</v>
       </c>
       <c r="D10" t="n">
-        <v>5.096769994497224</v>
+        <v>1.908999574153212</v>
       </c>
       <c r="E10" t="n">
-        <v>5.096769994497224</v>
+        <v>1.908999574153212</v>
       </c>
       <c r="F10" t="n">
-        <v>5.096769994497224</v>
+        <v>1.908999574153212</v>
       </c>
       <c r="G10" t="n">
-        <v>5.096769994497224</v>
+        <v>1.908999574153212</v>
       </c>
       <c r="H10" t="n">
-        <v>5.096769994497224</v>
+        <v>1.908999574153212</v>
       </c>
       <c r="I10" t="n">
-        <v>1.880777036723551</v>
+        <v>1.908999574153212</v>
       </c>
       <c r="J10" t="n">
-        <v>1.880777036723551</v>
+        <v>1.908999574153212</v>
       </c>
       <c r="K10" t="n">
-        <v>1.880777036723551</v>
+        <v>1.908999574153212</v>
       </c>
       <c r="L10" t="n">
-        <v>2.170301745874839</v>
+        <v>2.295468180757767</v>
       </c>
       <c r="M10" t="n">
-        <v>3.005035947119213</v>
+        <v>3.232416129329197</v>
       </c>
       <c r="N10" t="n">
-        <v>5.096769994497224</v>
+        <v>5.423933509581785</v>
       </c>
       <c r="O10" t="n">
-        <v>5.096769994497224</v>
+        <v>5.423933509581785</v>
       </c>
       <c r="P10" t="n">
-        <v>5.096769994497224</v>
+        <v>5.423933509581785</v>
       </c>
       <c r="Q10" t="n">
-        <v>5.096769994497224</v>
+        <v>5.423933509581785</v>
       </c>
       <c r="R10" t="n">
-        <v>5.096769994497224</v>
+        <v>5.423933509581785</v>
       </c>
       <c r="S10" t="n">
-        <v>5.096769994497224</v>
+        <v>5.423933509581785</v>
       </c>
       <c r="T10" t="n">
-        <v>5.096769994497224</v>
+        <v>5.423933509581785</v>
       </c>
       <c r="U10" t="n">
-        <v>5.096769994497224</v>
+        <v>5.423933509581785</v>
       </c>
       <c r="V10" t="n">
-        <v>5.096769994497224</v>
+        <v>1.908999574153212</v>
       </c>
       <c r="W10" t="n">
-        <v>5.096769994497224</v>
+        <v>1.908999574153212</v>
       </c>
       <c r="X10" t="n">
-        <v>5.096769994497224</v>
+        <v>1.908999574153212</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.096769994497224</v>
+        <v>1.908999574153212</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>352.374721872006</v>
+        <v>263.3912062477622</v>
       </c>
       <c r="C11" t="n">
-        <v>352.374721872006</v>
+        <v>263.3912062477622</v>
       </c>
       <c r="D11" t="n">
-        <v>352.374721872006</v>
+        <v>174.4076906235182</v>
       </c>
       <c r="E11" t="n">
-        <v>273.9980413101719</v>
+        <v>85.42417499927421</v>
       </c>
       <c r="F11" t="n">
-        <v>185.014525685928</v>
+        <v>7.047494437440123</v>
       </c>
       <c r="G11" t="n">
-        <v>96.03101006168406</v>
+        <v>7.047494437440123</v>
       </c>
       <c r="H11" t="n">
-        <v>7.04749443744012</v>
+        <v>7.047494437440123</v>
       </c>
       <c r="I11" t="n">
-        <v>7.04749443744012</v>
+        <v>7.047494437440123</v>
       </c>
       <c r="J11" t="n">
-        <v>24.78252049490588</v>
+        <v>24.7825204949059</v>
       </c>
       <c r="K11" t="n">
-        <v>59.60773643878164</v>
+        <v>59.60773643878167</v>
       </c>
       <c r="L11" t="n">
         <v>108.8080325753178</v>
       </c>
       <c r="M11" t="n">
-        <v>168.6991254940435</v>
+        <v>168.6991254940436</v>
       </c>
       <c r="N11" t="n">
-        <v>230.3090627719645</v>
+        <v>230.3090627719646</v>
       </c>
       <c r="O11" t="n">
-        <v>286.3185995386593</v>
+        <v>286.3185995386594</v>
       </c>
       <c r="P11" t="n">
-        <v>328.5150307030225</v>
+        <v>328.5150307030226</v>
       </c>
       <c r="Q11" t="n">
-        <v>352.374721872006</v>
+        <v>352.3747218720061</v>
       </c>
       <c r="R11" t="n">
-        <v>352.374721872006</v>
+        <v>352.3747218720061</v>
       </c>
       <c r="S11" t="n">
-        <v>352.374721872006</v>
+        <v>263.3912062477622</v>
       </c>
       <c r="T11" t="n">
-        <v>352.374721872006</v>
+        <v>263.3912062477622</v>
       </c>
       <c r="U11" t="n">
-        <v>352.374721872006</v>
+        <v>263.3912062477622</v>
       </c>
       <c r="V11" t="n">
-        <v>352.374721872006</v>
+        <v>263.3912062477622</v>
       </c>
       <c r="W11" t="n">
-        <v>352.374721872006</v>
+        <v>263.3912062477622</v>
       </c>
       <c r="X11" t="n">
-        <v>352.374721872006</v>
+        <v>263.3912062477622</v>
       </c>
       <c r="Y11" t="n">
-        <v>352.374721872006</v>
+        <v>263.3912062477622</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>287.0118951916915</v>
+        <v>96.0310100616841</v>
       </c>
       <c r="C12" t="n">
+        <v>96.0310100616841</v>
+      </c>
+      <c r="D12" t="n">
+        <v>96.0310100616841</v>
+      </c>
+      <c r="E12" t="n">
+        <v>96.0310100616841</v>
+      </c>
+      <c r="F12" t="n">
+        <v>7.047494437440123</v>
+      </c>
+      <c r="G12" t="n">
+        <v>7.047494437440123</v>
+      </c>
+      <c r="H12" t="n">
+        <v>7.047494437440123</v>
+      </c>
+      <c r="I12" t="n">
+        <v>7.047494437440123</v>
+      </c>
+      <c r="J12" t="n">
+        <v>14.55245432966377</v>
+      </c>
+      <c r="K12" t="n">
+        <v>40.07978517569843</v>
+      </c>
+      <c r="L12" t="n">
+        <v>81.93184470419641</v>
+      </c>
+      <c r="M12" t="n">
+        <v>133.9167152178292</v>
+      </c>
+      <c r="N12" t="n">
+        <v>189.6188753669568</v>
+      </c>
+      <c r="O12" t="n">
+        <v>236.9647528833238</v>
+      </c>
+      <c r="P12" t="n">
+        <v>271.8223704119701</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>287.0118951916916</v>
+      </c>
+      <c r="R12" t="n">
+        <v>287.0118951916916</v>
+      </c>
+      <c r="S12" t="n">
+        <v>287.0118951916916</v>
+      </c>
+      <c r="T12" t="n">
         <v>198.0283795674476</v>
       </c>
-      <c r="D12" t="n">
-        <v>109.0448639432037</v>
-      </c>
-      <c r="E12" t="n">
-        <v>20.06134831895972</v>
-      </c>
-      <c r="F12" t="n">
-        <v>7.04749443744012</v>
-      </c>
-      <c r="G12" t="n">
-        <v>7.04749443744012</v>
-      </c>
-      <c r="H12" t="n">
-        <v>7.04749443744012</v>
-      </c>
-      <c r="I12" t="n">
-        <v>7.04749443744012</v>
-      </c>
-      <c r="J12" t="n">
-        <v>14.55245432966376</v>
-      </c>
-      <c r="K12" t="n">
-        <v>40.07978517569842</v>
-      </c>
-      <c r="L12" t="n">
-        <v>81.93184470419638</v>
-      </c>
-      <c r="M12" t="n">
-        <v>133.9167152178291</v>
-      </c>
-      <c r="N12" t="n">
-        <v>189.6188753669567</v>
-      </c>
-      <c r="O12" t="n">
-        <v>236.9647528833237</v>
-      </c>
-      <c r="P12" t="n">
-        <v>271.82237041197</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>287.0118951916915</v>
-      </c>
-      <c r="R12" t="n">
-        <v>287.0118951916915</v>
-      </c>
-      <c r="S12" t="n">
-        <v>287.0118951916915</v>
-      </c>
-      <c r="T12" t="n">
-        <v>287.0118951916915</v>
-      </c>
       <c r="U12" t="n">
-        <v>287.0118951916915</v>
+        <v>109.0448639432036</v>
       </c>
       <c r="V12" t="n">
-        <v>287.0118951916915</v>
+        <v>109.0448639432036</v>
       </c>
       <c r="W12" t="n">
-        <v>287.0118951916915</v>
+        <v>96.0310100616841</v>
       </c>
       <c r="X12" t="n">
-        <v>287.0118951916915</v>
+        <v>96.0310100616841</v>
       </c>
       <c r="Y12" t="n">
-        <v>287.0118951916915</v>
+        <v>96.0310100616841</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7.04749443744012</v>
+        <v>84.54701889409738</v>
       </c>
       <c r="C13" t="n">
-        <v>7.04749443744012</v>
+        <v>84.54701889409738</v>
       </c>
       <c r="D13" t="n">
-        <v>7.04749443744012</v>
+        <v>84.54701889409738</v>
       </c>
       <c r="E13" t="n">
-        <v>7.04749443744012</v>
+        <v>84.54701889409738</v>
       </c>
       <c r="F13" t="n">
-        <v>7.04749443744012</v>
+        <v>84.54701889409738</v>
       </c>
       <c r="G13" t="n">
-        <v>7.04749443744012</v>
+        <v>7.047494437440123</v>
       </c>
       <c r="H13" t="n">
-        <v>7.04749443744012</v>
+        <v>7.047494437440123</v>
       </c>
       <c r="I13" t="n">
-        <v>7.04749443744012</v>
+        <v>7.047494437440123</v>
       </c>
       <c r="J13" t="n">
-        <v>7.04749443744012</v>
+        <v>7.047494437440123</v>
       </c>
       <c r="K13" t="n">
-        <v>15.06648958421997</v>
+        <v>15.06648958421998</v>
       </c>
       <c r="L13" t="n">
-        <v>30.18773465530779</v>
+        <v>30.18773465530781</v>
       </c>
       <c r="M13" t="n">
-        <v>46.66043841756913</v>
+        <v>46.66043841756915</v>
       </c>
       <c r="N13" t="n">
-        <v>64.01830606238372</v>
+        <v>64.01830606238374</v>
       </c>
       <c r="O13" t="n">
-        <v>76.75022933554695</v>
+        <v>76.75022933554698</v>
       </c>
       <c r="P13" t="n">
-        <v>84.54701889409735</v>
+        <v>84.54701889409738</v>
       </c>
       <c r="Q13" t="n">
-        <v>84.54701889409735</v>
+        <v>84.54701889409738</v>
       </c>
       <c r="R13" t="n">
-        <v>84.54701889409735</v>
+        <v>84.54701889409738</v>
       </c>
       <c r="S13" t="n">
-        <v>7.04749443744012</v>
+        <v>84.54701889409738</v>
       </c>
       <c r="T13" t="n">
-        <v>7.04749443744012</v>
+        <v>84.54701889409738</v>
       </c>
       <c r="U13" t="n">
-        <v>7.04749443744012</v>
+        <v>84.54701889409738</v>
       </c>
       <c r="V13" t="n">
-        <v>7.04749443744012</v>
+        <v>84.54701889409738</v>
       </c>
       <c r="W13" t="n">
-        <v>7.04749443744012</v>
+        <v>84.54701889409738</v>
       </c>
       <c r="X13" t="n">
-        <v>7.04749443744012</v>
+        <v>84.54701889409738</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.04749443744012</v>
+        <v>84.54701889409738</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.047494437440121</v>
+        <v>287.1769873278978</v>
       </c>
       <c r="C14" t="n">
-        <v>7.047494437440121</v>
+        <v>287.1769873278978</v>
       </c>
       <c r="D14" t="n">
-        <v>7.047494437440121</v>
+        <v>287.1769873278978</v>
       </c>
       <c r="E14" t="n">
-        <v>7.047494437440121</v>
+        <v>287.1769873278978</v>
       </c>
       <c r="F14" t="n">
-        <v>7.047494437440121</v>
+        <v>198.1934717036539</v>
       </c>
       <c r="G14" t="n">
-        <v>7.047494437440121</v>
+        <v>109.2099560794099</v>
       </c>
       <c r="H14" t="n">
-        <v>7.047494437440121</v>
+        <v>20.22644045516591</v>
       </c>
       <c r="I14" t="n">
-        <v>7.047494437440121</v>
+        <v>7.047494437440123</v>
       </c>
       <c r="J14" t="n">
-        <v>24.78252049490595</v>
+        <v>24.7825204949059</v>
       </c>
       <c r="K14" t="n">
-        <v>59.60773643878173</v>
+        <v>59.60773643878167</v>
       </c>
       <c r="L14" t="n">
         <v>108.8080325753178</v>
@@ -5290,10 +5290,10 @@
         <v>168.6991254940436</v>
       </c>
       <c r="N14" t="n">
-        <v>230.3090627719645</v>
+        <v>230.3090627719646</v>
       </c>
       <c r="O14" t="n">
-        <v>286.3185995386593</v>
+        <v>286.3185995386594</v>
       </c>
       <c r="P14" t="n">
         <v>328.5150307030226</v>
@@ -5302,28 +5302,28 @@
         <v>352.3747218720061</v>
       </c>
       <c r="R14" t="n">
-        <v>352.374721872006</v>
+        <v>352.3747218720061</v>
       </c>
       <c r="S14" t="n">
-        <v>263.3912062477621</v>
+        <v>287.1769873278978</v>
       </c>
       <c r="T14" t="n">
-        <v>174.4076906235181</v>
+        <v>287.1769873278978</v>
       </c>
       <c r="U14" t="n">
-        <v>96.03101006168407</v>
+        <v>287.1769873278978</v>
       </c>
       <c r="V14" t="n">
-        <v>7.047494437440121</v>
+        <v>287.1769873278978</v>
       </c>
       <c r="W14" t="n">
-        <v>7.047494437440121</v>
+        <v>287.1769873278978</v>
       </c>
       <c r="X14" t="n">
-        <v>7.047494437440121</v>
+        <v>287.1769873278978</v>
       </c>
       <c r="Y14" t="n">
-        <v>7.047494437440121</v>
+        <v>287.1769873278978</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>273.998041310172</v>
+        <v>198.0283795674476</v>
       </c>
       <c r="C15" t="n">
-        <v>185.014525685928</v>
+        <v>198.0283795674476</v>
       </c>
       <c r="D15" t="n">
-        <v>96.03101006168407</v>
+        <v>198.0283795674476</v>
       </c>
       <c r="E15" t="n">
-        <v>7.047494437440121</v>
+        <v>109.0448639432036</v>
       </c>
       <c r="F15" t="n">
-        <v>7.047494437440121</v>
+        <v>96.0310100616841</v>
       </c>
       <c r="G15" t="n">
-        <v>7.047494437440121</v>
+        <v>7.047494437440123</v>
       </c>
       <c r="H15" t="n">
-        <v>7.047494437440121</v>
+        <v>7.047494437440123</v>
       </c>
       <c r="I15" t="n">
-        <v>7.047494437440121</v>
+        <v>7.047494437440123</v>
       </c>
       <c r="J15" t="n">
-        <v>14.55245432966376</v>
+        <v>14.55245432966377</v>
       </c>
       <c r="K15" t="n">
-        <v>40.07978517569842</v>
+        <v>40.07978517569843</v>
       </c>
       <c r="L15" t="n">
-        <v>81.93184470419638</v>
+        <v>81.93184470419641</v>
       </c>
       <c r="M15" t="n">
-        <v>133.9167152178291</v>
+        <v>133.9167152178292</v>
       </c>
       <c r="N15" t="n">
-        <v>189.6188753669567</v>
+        <v>189.6188753669568</v>
       </c>
       <c r="O15" t="n">
-        <v>236.9647528833237</v>
+        <v>236.9647528833238</v>
       </c>
       <c r="P15" t="n">
-        <v>271.82237041197</v>
+        <v>271.8223704119701</v>
       </c>
       <c r="Q15" t="n">
-        <v>287.0118951916915</v>
+        <v>287.0118951916916</v>
       </c>
       <c r="R15" t="n">
-        <v>287.0118951916915</v>
+        <v>287.0118951916916</v>
       </c>
       <c r="S15" t="n">
-        <v>287.0118951916915</v>
+        <v>287.0118951916916</v>
       </c>
       <c r="T15" t="n">
-        <v>287.0118951916915</v>
+        <v>198.0283795674476</v>
       </c>
       <c r="U15" t="n">
-        <v>287.0118951916915</v>
+        <v>198.0283795674476</v>
       </c>
       <c r="V15" t="n">
-        <v>287.0118951916915</v>
+        <v>198.0283795674476</v>
       </c>
       <c r="W15" t="n">
-        <v>287.0118951916915</v>
+        <v>198.0283795674476</v>
       </c>
       <c r="X15" t="n">
-        <v>287.0118951916915</v>
+        <v>198.0283795674476</v>
       </c>
       <c r="Y15" t="n">
-        <v>287.0118951916915</v>
+        <v>198.0283795674476</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>84.54701889409735</v>
+        <v>84.54701889409738</v>
       </c>
       <c r="C16" t="n">
-        <v>84.54701889409735</v>
+        <v>84.54701889409738</v>
       </c>
       <c r="D16" t="n">
-        <v>84.54701889409735</v>
+        <v>84.54701889409738</v>
       </c>
       <c r="E16" t="n">
-        <v>84.54701889409735</v>
+        <v>84.54701889409738</v>
       </c>
       <c r="F16" t="n">
-        <v>84.54701889409735</v>
+        <v>84.54701889409738</v>
       </c>
       <c r="G16" t="n">
-        <v>84.54701889409735</v>
+        <v>84.54701889409738</v>
       </c>
       <c r="H16" t="n">
-        <v>7.047494437440121</v>
+        <v>7.047494437440123</v>
       </c>
       <c r="I16" t="n">
-        <v>7.047494437440121</v>
+        <v>7.047494437440123</v>
       </c>
       <c r="J16" t="n">
-        <v>7.047494437440121</v>
+        <v>7.047494437440123</v>
       </c>
       <c r="K16" t="n">
-        <v>15.06648958421997</v>
+        <v>15.06648958421998</v>
       </c>
       <c r="L16" t="n">
-        <v>30.18773465530779</v>
+        <v>30.18773465530781</v>
       </c>
       <c r="M16" t="n">
-        <v>46.66043841756913</v>
+        <v>46.66043841756915</v>
       </c>
       <c r="N16" t="n">
-        <v>64.01830606238372</v>
+        <v>64.01830606238374</v>
       </c>
       <c r="O16" t="n">
-        <v>76.75022933554695</v>
+        <v>76.75022933554698</v>
       </c>
       <c r="P16" t="n">
-        <v>84.54701889409735</v>
+        <v>84.54701889409738</v>
       </c>
       <c r="Q16" t="n">
-        <v>84.54701889409735</v>
+        <v>84.54701889409738</v>
       </c>
       <c r="R16" t="n">
-        <v>84.54701889409735</v>
+        <v>84.54701889409738</v>
       </c>
       <c r="S16" t="n">
-        <v>84.54701889409735</v>
+        <v>84.54701889409738</v>
       </c>
       <c r="T16" t="n">
-        <v>84.54701889409735</v>
+        <v>84.54701889409738</v>
       </c>
       <c r="U16" t="n">
-        <v>84.54701889409735</v>
+        <v>84.54701889409738</v>
       </c>
       <c r="V16" t="n">
-        <v>84.54701889409735</v>
+        <v>84.54701889409738</v>
       </c>
       <c r="W16" t="n">
-        <v>84.54701889409735</v>
+        <v>84.54701889409738</v>
       </c>
       <c r="X16" t="n">
-        <v>84.54701889409735</v>
+        <v>84.54701889409738</v>
       </c>
       <c r="Y16" t="n">
-        <v>84.54701889409735</v>
+        <v>84.54701889409738</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>860.2643733943197</v>
+        <v>694.00212172561</v>
       </c>
       <c r="C17" t="n">
-        <v>433.3636434076198</v>
+        <v>694.00212172561</v>
       </c>
       <c r="D17" t="n">
-        <v>433.3636434076198</v>
+        <v>694.00212172561</v>
       </c>
       <c r="E17" t="n">
-        <v>433.3636434076198</v>
+        <v>694.00212172561</v>
       </c>
       <c r="F17" t="n">
-        <v>48.62404813690172</v>
+        <v>450.6976894637163</v>
       </c>
       <c r="G17" t="n">
-        <v>48.62404813690172</v>
+        <v>48.60041826463745</v>
       </c>
       <c r="H17" t="n">
-        <v>48.62404813690172</v>
+        <v>48.60041826463745</v>
       </c>
       <c r="I17" t="n">
-        <v>99.16422808906867</v>
+        <v>99.10475997836784</v>
       </c>
       <c r="J17" t="n">
-        <v>256.6002356925479</v>
+        <v>256.461869308338</v>
       </c>
       <c r="K17" t="n">
-        <v>500.8010092303053</v>
+        <v>500.5443947863729</v>
       </c>
       <c r="L17" t="n">
-        <v>809.7501988153166</v>
+        <v>809.3468871970897</v>
       </c>
       <c r="M17" t="n">
-        <v>1158.661983949143</v>
+        <v>1158.095443458994</v>
       </c>
       <c r="N17" t="n">
-        <v>1513.969270404037</v>
+        <v>1513.236859828167</v>
       </c>
       <c r="O17" t="n">
-        <v>1847.308885722237</v>
+        <v>1846.419848727945</v>
       </c>
       <c r="P17" t="n">
-        <v>2126.200122672178</v>
+        <v>2125.177408653441</v>
       </c>
       <c r="Q17" t="n">
-        <v>2327.807755589076</v>
+        <v>2326.684655692098</v>
       </c>
       <c r="R17" t="n">
-        <v>2431.202406845086</v>
+        <v>2430.020913231872</v>
       </c>
       <c r="S17" t="n">
-        <v>2431.202406845086</v>
+        <v>2376.738436336442</v>
       </c>
       <c r="T17" t="n">
-        <v>2431.202406845086</v>
+        <v>2165.626306409295</v>
       </c>
       <c r="U17" t="n">
-        <v>2431.202406845086</v>
+        <v>1907.450740302625</v>
       </c>
       <c r="V17" t="n">
-        <v>2073.712991971335</v>
+        <v>1907.450740302625</v>
       </c>
       <c r="W17" t="n">
-        <v>1677.321642271682</v>
+        <v>1511.059390602972</v>
       </c>
       <c r="X17" t="n">
-        <v>1265.601643439429</v>
+        <v>1099.33939177072</v>
       </c>
       <c r="Y17" t="n">
-        <v>860.2643733943197</v>
+        <v>694.00212172561</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>547.2505097166859</v>
+        <v>546.3998785153942</v>
       </c>
       <c r="C18" t="n">
-        <v>429.7446062341907</v>
+        <v>428.893975032899</v>
       </c>
       <c r="D18" t="n">
-        <v>325.9046477494757</v>
+        <v>325.054016548184</v>
       </c>
       <c r="E18" t="n">
-        <v>221.2027140224129</v>
+        <v>220.3520828211212</v>
       </c>
       <c r="F18" t="n">
-        <v>183.2647430166912</v>
+        <v>126.7062525040254</v>
       </c>
       <c r="G18" t="n">
-        <v>90.4109427536317</v>
+        <v>48.60041826463745</v>
       </c>
       <c r="H18" t="n">
-        <v>48.62404813690172</v>
+        <v>48.60041826463745</v>
       </c>
       <c r="I18" t="n">
-        <v>73.10602944693852</v>
+        <v>73.06527495284247</v>
       </c>
       <c r="J18" t="n">
-        <v>163.8159369004335</v>
+        <v>163.7281911351427</v>
       </c>
       <c r="K18" t="n">
-        <v>331.5537758177427</v>
+        <v>331.3857144853206</v>
       </c>
       <c r="L18" t="n">
-        <v>564.6254133148</v>
+        <v>564.3493577908132</v>
       </c>
       <c r="M18" t="n">
-        <v>839.7545120729266</v>
+        <v>839.3524324211407</v>
       </c>
       <c r="N18" t="n">
-        <v>1124.506864201806</v>
+        <v>1123.975424938554</v>
       </c>
       <c r="O18" t="n">
-        <v>1381.388918792416</v>
+        <v>1380.739140757126</v>
       </c>
       <c r="P18" t="n">
-        <v>1584.417791458829</v>
+        <v>1583.673036126047</v>
       </c>
       <c r="Q18" t="n">
-        <v>1712.025346683899</v>
+        <v>1711.21710154299</v>
       </c>
       <c r="R18" t="n">
-        <v>1761.610031794467</v>
+        <v>1760.770905615768</v>
       </c>
       <c r="S18" t="n">
-        <v>1702.574729024099</v>
+        <v>1701.726176695143</v>
       </c>
       <c r="T18" t="n">
-        <v>1565.53152062998</v>
+        <v>1564.680922815289</v>
       </c>
       <c r="U18" t="n">
-        <v>1380.84227004431</v>
+        <v>1379.991638843018</v>
       </c>
       <c r="V18" t="n">
-        <v>1175.869131183576</v>
+        <v>1175.018499982285</v>
       </c>
       <c r="W18" t="n">
-        <v>979.3477540167934</v>
+        <v>978.4971228155017</v>
       </c>
       <c r="X18" t="n">
-        <v>815.8704077834562</v>
+        <v>815.0197765821646</v>
       </c>
       <c r="Y18" t="n">
-        <v>676.1775191367486</v>
+        <v>675.326887935457</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>48.62404813690172</v>
+        <v>103.9901199016122</v>
       </c>
       <c r="C19" t="n">
-        <v>48.62404813690172</v>
+        <v>103.9901199016122</v>
       </c>
       <c r="D19" t="n">
-        <v>48.62404813690172</v>
+        <v>103.9901199016122</v>
       </c>
       <c r="E19" t="n">
-        <v>48.62404813690172</v>
+        <v>103.9901199016122</v>
       </c>
       <c r="F19" t="n">
-        <v>48.62404813690172</v>
+        <v>103.9901199016122</v>
       </c>
       <c r="G19" t="n">
-        <v>48.62404813690172</v>
+        <v>103.9901199016122</v>
       </c>
       <c r="H19" t="n">
-        <v>48.62404813690172</v>
+        <v>48.60041826463745</v>
       </c>
       <c r="I19" t="n">
-        <v>48.62404813690172</v>
+        <v>48.60041826463745</v>
       </c>
       <c r="J19" t="n">
-        <v>97.90358380566128</v>
+        <v>97.85047311998468</v>
       </c>
       <c r="K19" t="n">
-        <v>191.703395224501</v>
+        <v>191.6018385062399</v>
       </c>
       <c r="L19" t="n">
-        <v>316.5945518224486</v>
+        <v>316.4310008618646</v>
       </c>
       <c r="M19" t="n">
-        <v>448.8042364124977</v>
+        <v>448.5753212156185</v>
       </c>
       <c r="N19" t="n">
-        <v>579.1471181658872</v>
+        <v>578.8543929481554</v>
       </c>
       <c r="O19" t="n">
-        <v>696.238989122774</v>
+        <v>695.8873250228338</v>
       </c>
       <c r="P19" t="n">
-        <v>793.3337426628177</v>
+        <v>792.9316461671417</v>
       </c>
       <c r="Q19" t="n">
-        <v>851.5241032894696</v>
+        <v>851.0870900171008</v>
       </c>
       <c r="R19" t="n">
-        <v>851.5241032894696</v>
+        <v>851.0870900171008</v>
       </c>
       <c r="S19" t="n">
-        <v>698.9211677349933</v>
+        <v>851.0870900171008</v>
       </c>
       <c r="T19" t="n">
-        <v>698.9211677349933</v>
+        <v>612.0443556038413</v>
       </c>
       <c r="U19" t="n">
-        <v>698.9211677349933</v>
+        <v>612.0443556038413</v>
       </c>
       <c r="V19" t="n">
-        <v>417.2097003430222</v>
+        <v>330.3328882118702</v>
       </c>
       <c r="W19" t="n">
-        <v>142.3572965155353</v>
+        <v>330.3328882118702</v>
       </c>
       <c r="X19" t="n">
-        <v>48.62404813690172</v>
+        <v>330.3328882118702</v>
       </c>
       <c r="Y19" t="n">
-        <v>48.62404813690172</v>
+        <v>103.9901199016122</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>899.7251697996439</v>
+        <v>1965.018437504189</v>
       </c>
       <c r="C20" t="n">
-        <v>899.7251697996439</v>
+        <v>1725.091431941458</v>
       </c>
       <c r="D20" t="n">
-        <v>899.7251697996439</v>
+        <v>1301.798811126459</v>
       </c>
       <c r="E20" t="n">
-        <v>473.7482299475015</v>
+        <v>875.8218712743161</v>
       </c>
       <c r="F20" t="n">
-        <v>48.62404813690172</v>
+        <v>450.6976894637163</v>
       </c>
       <c r="G20" t="n">
-        <v>48.62404813690172</v>
+        <v>48.60041826463745</v>
       </c>
       <c r="H20" t="n">
-        <v>48.62404813690172</v>
+        <v>48.60041826463745</v>
       </c>
       <c r="I20" t="n">
-        <v>99.16422808906844</v>
+        <v>99.10475997836818</v>
       </c>
       <c r="J20" t="n">
-        <v>256.6002356925477</v>
+        <v>256.4618693083384</v>
       </c>
       <c r="K20" t="n">
-        <v>500.8010092303053</v>
+        <v>500.5443947863732</v>
       </c>
       <c r="L20" t="n">
-        <v>809.7501988153166</v>
+        <v>809.3468871970899</v>
       </c>
       <c r="M20" t="n">
-        <v>1158.661983949143</v>
+        <v>1158.095443458995</v>
       </c>
       <c r="N20" t="n">
-        <v>1513.969270404037</v>
+        <v>1513.236859828168</v>
       </c>
       <c r="O20" t="n">
-        <v>1847.308885722237</v>
+        <v>1846.419848727945</v>
       </c>
       <c r="P20" t="n">
-        <v>2126.200122672178</v>
+        <v>2125.177408653441</v>
       </c>
       <c r="Q20" t="n">
-        <v>2327.807755589076</v>
+        <v>2326.684655692098</v>
       </c>
       <c r="R20" t="n">
-        <v>2431.202406845086</v>
+        <v>2430.020913231872</v>
       </c>
       <c r="S20" t="n">
-        <v>2431.202406845086</v>
+        <v>2376.738436336442</v>
       </c>
       <c r="T20" t="n">
-        <v>2220.094428846519</v>
+        <v>2376.738436336442</v>
       </c>
       <c r="U20" t="n">
-        <v>2220.094428846519</v>
+        <v>2376.738436336442</v>
       </c>
       <c r="V20" t="n">
-        <v>2220.094428846519</v>
+        <v>2376.738436336442</v>
       </c>
       <c r="W20" t="n">
-        <v>1823.703079146866</v>
+        <v>2376.738436336442</v>
       </c>
       <c r="X20" t="n">
-        <v>1411.983080314614</v>
+        <v>1965.018437504189</v>
       </c>
       <c r="Y20" t="n">
-        <v>1006.645810269504</v>
+        <v>1965.018437504189</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>561.17147441133</v>
+        <v>546.3998785153942</v>
       </c>
       <c r="C21" t="n">
-        <v>443.6655709288348</v>
+        <v>428.893975032899</v>
       </c>
       <c r="D21" t="n">
-        <v>339.8256124441198</v>
+        <v>325.054016548184</v>
       </c>
       <c r="E21" t="n">
-        <v>235.123678717057</v>
+        <v>276.8923520908322</v>
       </c>
       <c r="F21" t="n">
-        <v>141.4778483999612</v>
+        <v>183.2465217737363</v>
       </c>
       <c r="G21" t="n">
-        <v>48.62404813690172</v>
+        <v>90.39221403434657</v>
       </c>
       <c r="H21" t="n">
-        <v>48.62404813690172</v>
+        <v>48.60041826463745</v>
       </c>
       <c r="I21" t="n">
-        <v>73.10602944693852</v>
+        <v>73.06527495284247</v>
       </c>
       <c r="J21" t="n">
-        <v>163.8159369004335</v>
+        <v>163.7281911351427</v>
       </c>
       <c r="K21" t="n">
-        <v>331.5537758177427</v>
+        <v>331.3857144853206</v>
       </c>
       <c r="L21" t="n">
-        <v>564.6254133148</v>
+        <v>564.3493577908132</v>
       </c>
       <c r="M21" t="n">
-        <v>839.7545120729266</v>
+        <v>839.3524324211407</v>
       </c>
       <c r="N21" t="n">
-        <v>1124.506864201806</v>
+        <v>1123.975424938554</v>
       </c>
       <c r="O21" t="n">
-        <v>1381.388918792416</v>
+        <v>1380.739140757126</v>
       </c>
       <c r="P21" t="n">
-        <v>1584.417791458829</v>
+        <v>1583.673036126047</v>
       </c>
       <c r="Q21" t="n">
-        <v>1712.025346683899</v>
+        <v>1711.21710154299</v>
       </c>
       <c r="R21" t="n">
-        <v>1761.610031794467</v>
+        <v>1760.770905615768</v>
       </c>
       <c r="S21" t="n">
-        <v>1716.495693718743</v>
+        <v>1701.726176695143</v>
       </c>
       <c r="T21" t="n">
-        <v>1579.452485324624</v>
+        <v>1564.680922815289</v>
       </c>
       <c r="U21" t="n">
-        <v>1394.763234738954</v>
+        <v>1379.991638843018</v>
       </c>
       <c r="V21" t="n">
-        <v>1189.79009587822</v>
+        <v>1175.018499982285</v>
       </c>
       <c r="W21" t="n">
-        <v>993.2687187114375</v>
+        <v>978.4971228155017</v>
       </c>
       <c r="X21" t="n">
-        <v>829.7913724781004</v>
+        <v>815.0197765821646</v>
       </c>
       <c r="Y21" t="n">
-        <v>690.0984838313927</v>
+        <v>675.326887935457</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1628.302351692518</v>
+        <v>183.4560742737127</v>
       </c>
       <c r="C22" t="n">
-        <v>1628.302351692518</v>
+        <v>183.4560742737127</v>
       </c>
       <c r="D22" t="n">
-        <v>1628.302351692518</v>
+        <v>183.4560742737127</v>
       </c>
       <c r="E22" t="n">
-        <v>1628.302351692518</v>
+        <v>183.4560742737127</v>
       </c>
       <c r="F22" t="n">
-        <v>1628.302351692518</v>
+        <v>183.4560742737127</v>
       </c>
       <c r="G22" t="n">
-        <v>1628.302351692518</v>
+        <v>183.4560742737127</v>
       </c>
       <c r="H22" t="n">
-        <v>1628.302351692518</v>
+        <v>48.60041826463745</v>
       </c>
       <c r="I22" t="n">
-        <v>1628.302351692518</v>
+        <v>48.60041826463745</v>
       </c>
       <c r="J22" t="n">
-        <v>1677.581887361278</v>
+        <v>97.85047311998468</v>
       </c>
       <c r="K22" t="n">
-        <v>1771.381698780117</v>
+        <v>191.6018385062399</v>
       </c>
       <c r="L22" t="n">
-        <v>1896.272855378065</v>
+        <v>316.4310008618646</v>
       </c>
       <c r="M22" t="n">
-        <v>2028.482539968114</v>
+        <v>448.5753212156185</v>
       </c>
       <c r="N22" t="n">
-        <v>2158.825421721504</v>
+        <v>578.8543929481554</v>
       </c>
       <c r="O22" t="n">
-        <v>2275.91729267839</v>
+        <v>695.8873250228338</v>
       </c>
       <c r="P22" t="n">
-        <v>2373.012046218434</v>
+        <v>792.9316461671417</v>
       </c>
       <c r="Q22" t="n">
-        <v>2431.202406845086</v>
+        <v>851.0870900171008</v>
       </c>
       <c r="R22" t="n">
-        <v>2431.202406845086</v>
+        <v>851.0870900171008</v>
       </c>
       <c r="S22" t="n">
-        <v>2431.202406845086</v>
+        <v>851.0870900171008</v>
       </c>
       <c r="T22" t="n">
-        <v>2431.202406845086</v>
+        <v>655.3335103777495</v>
       </c>
       <c r="U22" t="n">
-        <v>2431.202406845086</v>
+        <v>655.3335103777495</v>
       </c>
       <c r="V22" t="n">
-        <v>2149.490939453115</v>
+        <v>373.6220429857783</v>
       </c>
       <c r="W22" t="n">
-        <v>1874.638535625628</v>
+        <v>373.6220429857783</v>
       </c>
       <c r="X22" t="n">
-        <v>1632.074639071433</v>
+        <v>373.6220429857783</v>
       </c>
       <c r="Y22" t="n">
-        <v>1628.302351692518</v>
+        <v>373.6220429857783</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>50.20544392206816</v>
+        <v>1751.49991638651</v>
       </c>
       <c r="C23" t="n">
-        <v>50.20544392206816</v>
+        <v>1324.59918639981</v>
       </c>
       <c r="D23" t="n">
-        <v>50.20544392206816</v>
+        <v>901.3065655848104</v>
       </c>
       <c r="E23" t="n">
-        <v>50.20544392206816</v>
+        <v>475.3296257326679</v>
       </c>
       <c r="F23" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="G23" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="H23" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="I23" t="n">
         <v>103.1440473010161</v>
@@ -5995,46 +5995,46 @@
         <v>517.9745679998223</v>
       </c>
       <c r="L23" t="n">
-        <v>836.7412585230811</v>
+        <v>836.7412585230809</v>
       </c>
       <c r="M23" t="n">
-        <v>1196.576905080624</v>
+        <v>1196.576905080623</v>
       </c>
       <c r="N23" t="n">
-        <v>1562.984812457614</v>
+        <v>1562.984812457613</v>
       </c>
       <c r="O23" t="n">
         <v>1906.806429336001</v>
       </c>
       <c r="P23" t="n">
-        <v>2194.643812107885</v>
+        <v>2194.643812107884</v>
       </c>
       <c r="Q23" t="n">
-        <v>2402.969627965677</v>
+        <v>2402.969627965676</v>
       </c>
       <c r="R23" t="n">
-        <v>2510.272196103408</v>
+        <v>2510.272196103407</v>
       </c>
       <c r="S23" t="n">
-        <v>2458.457769745855</v>
+        <v>2458.457769745854</v>
       </c>
       <c r="T23" t="n">
-        <v>2247.627653696034</v>
+        <v>2458.457769745854</v>
       </c>
       <c r="U23" t="n">
-        <v>1989.457241469476</v>
+        <v>2200.287357519295</v>
       </c>
       <c r="V23" t="n">
-        <v>1631.967826595725</v>
+        <v>2171.34828067804</v>
       </c>
       <c r="W23" t="n">
-        <v>1235.576476896072</v>
+        <v>2171.34828067804</v>
       </c>
       <c r="X23" t="n">
-        <v>823.8564780638192</v>
+        <v>2171.34828067804</v>
       </c>
       <c r="Y23" t="n">
-        <v>470.0538082135982</v>
+        <v>2171.34828067804</v>
       </c>
     </row>
     <row r="24">
@@ -6059,25 +6059,25 @@
         <v>184.4841739339244</v>
       </c>
       <c r="G24" t="n">
-        <v>91.66433580662168</v>
+        <v>91.66433580662161</v>
       </c>
       <c r="H24" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="I24" t="n">
-        <v>75.83346633145936</v>
+        <v>75.83346633145926</v>
       </c>
       <c r="J24" t="n">
-        <v>169.6881981570806</v>
+        <v>169.6881981570805</v>
       </c>
       <c r="K24" t="n">
         <v>342.8010428266099</v>
       </c>
       <c r="L24" t="n">
-        <v>583.1000388744361</v>
+        <v>583.100038874436</v>
       </c>
       <c r="M24" t="n">
-        <v>866.6631241688301</v>
+        <v>866.66312416883</v>
       </c>
       <c r="N24" t="n">
         <v>1160.072685361481</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1679.707041483854</v>
+        <v>716.8146780477391</v>
       </c>
       <c r="C25" t="n">
-        <v>1679.707041483854</v>
+        <v>716.8146780477391</v>
       </c>
       <c r="D25" t="n">
-        <v>1679.707041483854</v>
+        <v>553.4979051745098</v>
       </c>
       <c r="E25" t="n">
-        <v>1679.707041483854</v>
+        <v>387.2896993273634</v>
       </c>
       <c r="F25" t="n">
-        <v>1679.707041483854</v>
+        <v>215.4279251019238</v>
       </c>
       <c r="G25" t="n">
-        <v>1679.707041483854</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="H25" t="n">
-        <v>1679.707041483854</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="I25" t="n">
-        <v>1679.707041483854</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="J25" t="n">
-        <v>1730.959538900021</v>
+        <v>101.4579413382349</v>
       </c>
       <c r="K25" t="n">
-        <v>1828.001532539751</v>
+        <v>198.4999349779649</v>
       </c>
       <c r="L25" t="n">
-        <v>1957.041566136168</v>
+        <v>327.539968574382</v>
       </c>
       <c r="M25" t="n">
-        <v>2093.625659805623</v>
+        <v>464.1240622438374</v>
       </c>
       <c r="N25" t="n">
-        <v>2228.238936967795</v>
+        <v>598.7373394060097</v>
       </c>
       <c r="O25" t="n">
-        <v>2349.275209268219</v>
+        <v>719.7736117064335</v>
       </c>
       <c r="P25" t="n">
-        <v>2449.745079574047</v>
+        <v>820.2434820122616</v>
       </c>
       <c r="Q25" t="n">
-        <v>2510.272196103408</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="R25" t="n">
-        <v>2510.272196103408</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="S25" t="n">
-        <v>2510.272196103408</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="T25" t="n">
-        <v>2510.272196103408</v>
+        <v>716.8146780477391</v>
       </c>
       <c r="U25" t="n">
-        <v>2236.270912703312</v>
+        <v>716.8146780477391</v>
       </c>
       <c r="V25" t="n">
-        <v>1954.559445311341</v>
+        <v>716.8146780477391</v>
       </c>
       <c r="W25" t="n">
-        <v>1679.707041483854</v>
+        <v>716.8146780477391</v>
       </c>
       <c r="X25" t="n">
-        <v>1679.707041483854</v>
+        <v>716.8146780477391</v>
       </c>
       <c r="Y25" t="n">
-        <v>1679.707041483854</v>
+        <v>716.8146780477391</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>324.4553010199516</v>
+        <v>2038.609405454325</v>
       </c>
       <c r="C26" t="n">
-        <v>324.4553010199516</v>
+        <v>1611.708675467625</v>
       </c>
       <c r="D26" t="n">
-        <v>324.4553010199516</v>
+        <v>1188.416054652625</v>
       </c>
       <c r="E26" t="n">
-        <v>324.4553010199516</v>
+        <v>762.4391148004828</v>
       </c>
       <c r="F26" t="n">
-        <v>324.4553010199516</v>
+        <v>337.314932989883</v>
       </c>
       <c r="G26" t="n">
-        <v>324.4553010199516</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="H26" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I26" t="n">
-        <v>103.1440473010161</v>
+        <v>103.1440473010166</v>
       </c>
       <c r="J26" t="n">
-        <v>265.8602102853079</v>
+        <v>265.8602102853083</v>
       </c>
       <c r="K26" t="n">
-        <v>517.9745679998223</v>
+        <v>517.9745679998227</v>
       </c>
       <c r="L26" t="n">
-        <v>836.7412585230809</v>
+        <v>836.7412585230815</v>
       </c>
       <c r="M26" t="n">
-        <v>1196.576905080623</v>
+        <v>1196.576905080624</v>
       </c>
       <c r="N26" t="n">
-        <v>1562.984812457613</v>
+        <v>1562.984812457614</v>
       </c>
       <c r="O26" t="n">
         <v>1906.806429336001</v>
       </c>
       <c r="P26" t="n">
-        <v>2194.643812107884</v>
+        <v>2194.643812107885</v>
       </c>
       <c r="Q26" t="n">
-        <v>2402.969627965676</v>
+        <v>2402.969627965677</v>
       </c>
       <c r="R26" t="n">
-        <v>2510.272196103407</v>
+        <v>2510.272196103408</v>
       </c>
       <c r="S26" t="n">
-        <v>2510.272196103407</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="T26" t="n">
-        <v>2510.272196103407</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="U26" t="n">
-        <v>2252.101783876848</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="V26" t="n">
-        <v>1894.612369003097</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="W26" t="n">
-        <v>1498.221019303444</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="X26" t="n">
-        <v>1086.501020471192</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="Y26" t="n">
-        <v>681.1637504260819</v>
+        <v>2458.457769745855</v>
       </c>
     </row>
     <row r="27">
@@ -6296,13 +6296,13 @@
         <v>184.4841739339245</v>
       </c>
       <c r="G27" t="n">
-        <v>91.66433580662166</v>
+        <v>91.66433580662168</v>
       </c>
       <c r="H27" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I27" t="n">
-        <v>75.83346633145926</v>
+        <v>75.83346633145928</v>
       </c>
       <c r="J27" t="n">
         <v>169.6881981570805</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>50.20544392206813</v>
+        <v>748.2103058278728</v>
       </c>
       <c r="C28" t="n">
-        <v>50.20544392206813</v>
+        <v>748.2103058278728</v>
       </c>
       <c r="D28" t="n">
-        <v>50.20544392206813</v>
+        <v>584.8935329546435</v>
       </c>
       <c r="E28" t="n">
-        <v>50.20544392206813</v>
+        <v>418.6853271074971</v>
       </c>
       <c r="F28" t="n">
-        <v>50.20544392206813</v>
+        <v>418.6853271074971</v>
       </c>
       <c r="G28" t="n">
-        <v>50.20544392206813</v>
+        <v>253.4628459276414</v>
       </c>
       <c r="H28" t="n">
-        <v>50.20544392206813</v>
+        <v>118.8641208752695</v>
       </c>
       <c r="I28" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="J28" t="n">
         <v>101.4579413382349</v>
@@ -6414,22 +6414,22 @@
         <v>880.7705985416225</v>
       </c>
       <c r="T28" t="n">
-        <v>880.7705985416225</v>
+        <v>748.2103058278728</v>
       </c>
       <c r="U28" t="n">
-        <v>880.7705985416225</v>
+        <v>748.2103058278728</v>
       </c>
       <c r="V28" t="n">
-        <v>880.7705985416225</v>
+        <v>748.2103058278728</v>
       </c>
       <c r="W28" t="n">
-        <v>709.2780774985866</v>
+        <v>748.2103058278728</v>
       </c>
       <c r="X28" t="n">
-        <v>466.7141809443917</v>
+        <v>748.2103058278728</v>
       </c>
       <c r="Y28" t="n">
-        <v>240.3714126341338</v>
+        <v>748.2103058278728</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1474.764004711568</v>
+        <v>830.2392068509618</v>
       </c>
       <c r="C29" t="n">
-        <v>1047.863274724868</v>
+        <v>830.2392068509618</v>
       </c>
       <c r="D29" t="n">
-        <v>624.5706539098687</v>
+        <v>830.2392068509618</v>
       </c>
       <c r="E29" t="n">
-        <v>198.5937140577263</v>
+        <v>830.2392068509618</v>
       </c>
       <c r="F29" t="n">
-        <v>198.5937140577263</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="G29" t="n">
-        <v>50.20544392206816</v>
+        <v>324.4553010199516</v>
       </c>
       <c r="H29" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="I29" t="n">
         <v>103.1440473010161</v>
@@ -6481,34 +6481,34 @@
         <v>1906.806429336001</v>
       </c>
       <c r="P29" t="n">
-        <v>2194.643812107885</v>
+        <v>2194.643812107884</v>
       </c>
       <c r="Q29" t="n">
-        <v>2402.969627965677</v>
+        <v>2402.969627965676</v>
       </c>
       <c r="R29" t="n">
-        <v>2510.272196103408</v>
+        <v>2510.272196103407</v>
       </c>
       <c r="S29" t="n">
-        <v>2510.272196103408</v>
+        <v>2458.457769745854</v>
       </c>
       <c r="T29" t="n">
-        <v>2510.272196103408</v>
+        <v>2247.627653696034</v>
       </c>
       <c r="U29" t="n">
-        <v>2252.101783876849</v>
+        <v>1989.457241469475</v>
       </c>
       <c r="V29" t="n">
-        <v>1894.612369003098</v>
+        <v>1631.967826595725</v>
       </c>
       <c r="W29" t="n">
-        <v>1894.612369003098</v>
+        <v>1235.576476896071</v>
       </c>
       <c r="X29" t="n">
-        <v>1894.612369003098</v>
+        <v>1235.576476896071</v>
       </c>
       <c r="Y29" t="n">
-        <v>1894.612369003098</v>
+        <v>830.2392068509618</v>
       </c>
     </row>
     <row r="30">
@@ -6524,19 +6524,19 @@
         <v>486.671896462798</v>
       </c>
       <c r="D30" t="n">
-        <v>382.831937978083</v>
+        <v>382.8319379780831</v>
       </c>
       <c r="E30" t="n">
-        <v>278.1300042510202</v>
+        <v>278.1300042510203</v>
       </c>
       <c r="F30" t="n">
-        <v>184.4841739339244</v>
+        <v>184.4841739339245</v>
       </c>
       <c r="G30" t="n">
-        <v>91.66433580662161</v>
+        <v>91.66433580662166</v>
       </c>
       <c r="H30" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="I30" t="n">
         <v>75.83346633145928</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2093.763459081084</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="C31" t="n">
-        <v>1921.79089596</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="D31" t="n">
-        <v>1921.79089596</v>
+        <v>565.347091861834</v>
       </c>
       <c r="E31" t="n">
-        <v>1755.582690112853</v>
+        <v>399.1388860146875</v>
       </c>
       <c r="F31" t="n">
-        <v>1679.707041483854</v>
+        <v>399.1388860146875</v>
       </c>
       <c r="G31" t="n">
-        <v>1679.707041483854</v>
+        <v>253.4628459276413</v>
       </c>
       <c r="H31" t="n">
-        <v>1679.707041483854</v>
+        <v>118.8641208752695</v>
       </c>
       <c r="I31" t="n">
-        <v>1679.707041483854</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="J31" t="n">
-        <v>1730.959538900021</v>
+        <v>101.4579413382349</v>
       </c>
       <c r="K31" t="n">
-        <v>1828.001532539751</v>
+        <v>198.4999349779649</v>
       </c>
       <c r="L31" t="n">
-        <v>1957.041566136168</v>
+        <v>327.539968574382</v>
       </c>
       <c r="M31" t="n">
-        <v>2093.625659805623</v>
+        <v>464.1240622438374</v>
       </c>
       <c r="N31" t="n">
-        <v>2228.238936967795</v>
+        <v>598.7373394060097</v>
       </c>
       <c r="O31" t="n">
-        <v>2349.275209268219</v>
+        <v>719.7736117064335</v>
       </c>
       <c r="P31" t="n">
-        <v>2449.745079574047</v>
+        <v>820.2434820122616</v>
       </c>
       <c r="Q31" t="n">
-        <v>2510.272196103408</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="R31" t="n">
-        <v>2510.272196103408</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="S31" t="n">
-        <v>2510.272196103408</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="T31" t="n">
-        <v>2510.272196103408</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="U31" t="n">
-        <v>2510.272196103408</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="V31" t="n">
-        <v>2510.272196103408</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="W31" t="n">
-        <v>2510.272196103408</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="X31" t="n">
-        <v>2510.272196103408</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="Y31" t="n">
-        <v>2283.929427793149</v>
+        <v>728.6638647350633</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1282.312483279972</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="C32" t="n">
-        <v>855.4117532932721</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="D32" t="n">
-        <v>855.4117532932721</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="E32" t="n">
-        <v>855.4117532932721</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="F32" t="n">
         <v>726.4881487176426</v>
@@ -6700,13 +6700,13 @@
         <v>103.1440473010161</v>
       </c>
       <c r="J32" t="n">
-        <v>265.8602102853079</v>
+        <v>265.8602102853081</v>
       </c>
       <c r="K32" t="n">
-        <v>517.9745679998223</v>
+        <v>517.9745679998226</v>
       </c>
       <c r="L32" t="n">
-        <v>836.741258523081</v>
+        <v>836.7412585230813</v>
       </c>
       <c r="M32" t="n">
         <v>1196.576905080624</v>
@@ -6727,25 +6727,25 @@
         <v>2510.272196103408</v>
       </c>
       <c r="S32" t="n">
-        <v>2510.272196103408</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="T32" t="n">
-        <v>2510.272196103408</v>
+        <v>2247.627653696034</v>
       </c>
       <c r="U32" t="n">
-        <v>2510.272196103408</v>
+        <v>1989.457241469476</v>
       </c>
       <c r="V32" t="n">
-        <v>2510.272196103408</v>
+        <v>1631.967826595725</v>
       </c>
       <c r="W32" t="n">
-        <v>2113.880846403755</v>
+        <v>1235.576476896072</v>
       </c>
       <c r="X32" t="n">
-        <v>1702.160847571502</v>
+        <v>823.8564780638192</v>
       </c>
       <c r="Y32" t="n">
-        <v>1702.160847571502</v>
+        <v>823.8564780638192</v>
       </c>
     </row>
     <row r="33">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1679.707041483854</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="C34" t="n">
-        <v>1679.707041483854</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="D34" t="n">
-        <v>1679.707041483854</v>
+        <v>565.347091861834</v>
       </c>
       <c r="E34" t="n">
-        <v>1679.707041483854</v>
+        <v>399.1388860146875</v>
       </c>
       <c r="F34" t="n">
-        <v>1679.707041483854</v>
+        <v>399.1388860146875</v>
       </c>
       <c r="G34" t="n">
-        <v>1679.707041483854</v>
+        <v>253.4628459276414</v>
       </c>
       <c r="H34" t="n">
-        <v>1679.707041483854</v>
+        <v>118.8641208752695</v>
       </c>
       <c r="I34" t="n">
-        <v>1679.707041483854</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="J34" t="n">
-        <v>1730.959538900021</v>
+        <v>101.4579413382349</v>
       </c>
       <c r="K34" t="n">
-        <v>1828.001532539751</v>
+        <v>198.4999349779649</v>
       </c>
       <c r="L34" t="n">
-        <v>1957.041566136168</v>
+        <v>327.539968574382</v>
       </c>
       <c r="M34" t="n">
-        <v>2093.625659805623</v>
+        <v>464.1240622438374</v>
       </c>
       <c r="N34" t="n">
-        <v>2228.238936967795</v>
+        <v>598.7373394060097</v>
       </c>
       <c r="O34" t="n">
-        <v>2349.275209268219</v>
+        <v>719.7736117064335</v>
       </c>
       <c r="P34" t="n">
-        <v>2449.745079574047</v>
+        <v>820.2434820122616</v>
       </c>
       <c r="Q34" t="n">
-        <v>2510.272196103408</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="R34" t="n">
-        <v>2510.272196103408</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="S34" t="n">
-        <v>2510.272196103408</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="T34" t="n">
-        <v>2510.272196103408</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="U34" t="n">
-        <v>2510.272196103408</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="V34" t="n">
-        <v>2423.466110175793</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="W34" t="n">
-        <v>2148.613706348307</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="X34" t="n">
-        <v>1906.049809794112</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="Y34" t="n">
-        <v>1679.707041483854</v>
+        <v>728.6638647350633</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1125.712951188653</v>
+        <v>1576.681499519342</v>
       </c>
       <c r="C35" t="n">
-        <v>1125.712951188653</v>
+        <v>1149.780769532642</v>
       </c>
       <c r="D35" t="n">
-        <v>1125.712951188653</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="E35" t="n">
-        <v>1125.712951188653</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="F35" t="n">
-        <v>700.5887693780533</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="G35" t="n">
-        <v>298.5559216803623</v>
+        <v>324.4553010199516</v>
       </c>
       <c r="H35" t="n">
         <v>50.20544392206814</v>
@@ -6943,7 +6943,7 @@
         <v>517.9745679998223</v>
       </c>
       <c r="L35" t="n">
-        <v>836.7412585230809</v>
+        <v>836.741258523081</v>
       </c>
       <c r="M35" t="n">
         <v>1196.576905080623</v>
@@ -6976,13 +6976,13 @@
         <v>1941.952665179836</v>
       </c>
       <c r="W35" t="n">
-        <v>1545.561315480183</v>
+        <v>1941.952665179836</v>
       </c>
       <c r="X35" t="n">
-        <v>1545.561315480183</v>
+        <v>1576.681499519342</v>
       </c>
       <c r="Y35" t="n">
-        <v>1545.561315480183</v>
+        <v>1576.681499519342</v>
       </c>
     </row>
     <row r="36">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1851.199562526889</v>
+        <v>418.685327107497</v>
       </c>
       <c r="C37" t="n">
-        <v>1679.707041483853</v>
+        <v>418.685327107497</v>
       </c>
       <c r="D37" t="n">
-        <v>1679.707041483853</v>
+        <v>418.685327107497</v>
       </c>
       <c r="E37" t="n">
-        <v>1679.707041483853</v>
+        <v>418.685327107497</v>
       </c>
       <c r="F37" t="n">
-        <v>1679.707041483853</v>
+        <v>418.685327107497</v>
       </c>
       <c r="G37" t="n">
-        <v>1679.707041483853</v>
+        <v>253.4628459276413</v>
       </c>
       <c r="H37" t="n">
-        <v>1679.707041483853</v>
+        <v>118.8641208752695</v>
       </c>
       <c r="I37" t="n">
-        <v>1679.707041483853</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="J37" t="n">
-        <v>1730.95953890002</v>
+        <v>101.4579413382349</v>
       </c>
       <c r="K37" t="n">
-        <v>1828.00153253975</v>
+        <v>198.4999349779649</v>
       </c>
       <c r="L37" t="n">
-        <v>1957.041566136167</v>
+        <v>327.539968574382</v>
       </c>
       <c r="M37" t="n">
-        <v>2093.625659805622</v>
+        <v>464.1240622438374</v>
       </c>
       <c r="N37" t="n">
-        <v>2228.238936967794</v>
+        <v>598.7373394060097</v>
       </c>
       <c r="O37" t="n">
-        <v>2349.275209268218</v>
+        <v>719.7736117064335</v>
       </c>
       <c r="P37" t="n">
-        <v>2449.745079574046</v>
+        <v>820.2434820122616</v>
       </c>
       <c r="Q37" t="n">
-        <v>2510.272196103407</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="R37" t="n">
-        <v>2510.272196103407</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="S37" t="n">
-        <v>2510.272196103407</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="T37" t="n">
-        <v>2510.272196103407</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="U37" t="n">
-        <v>2510.272196103407</v>
+        <v>600.6425766887946</v>
       </c>
       <c r="V37" t="n">
-        <v>2510.272196103407</v>
+        <v>600.6425766887946</v>
       </c>
       <c r="W37" t="n">
-        <v>2510.272196103407</v>
+        <v>600.6425766887946</v>
       </c>
       <c r="X37" t="n">
-        <v>2267.708299549212</v>
+        <v>600.6425766887946</v>
       </c>
       <c r="Y37" t="n">
-        <v>2041.365531238954</v>
+        <v>418.685327107497</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>477.106173908768</v>
+        <v>1626.889406622072</v>
       </c>
       <c r="C38" t="n">
-        <v>50.20544392206816</v>
+        <v>1598.849043497693</v>
       </c>
       <c r="D38" t="n">
-        <v>50.20544392206816</v>
+        <v>1175.556422682694</v>
       </c>
       <c r="E38" t="n">
-        <v>50.20544392206816</v>
+        <v>749.5794828305513</v>
       </c>
       <c r="F38" t="n">
-        <v>50.20544392206816</v>
+        <v>324.4553010199516</v>
       </c>
       <c r="G38" t="n">
-        <v>50.20544392206816</v>
+        <v>324.4553010199516</v>
       </c>
       <c r="H38" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="I38" t="n">
         <v>103.1440473010161</v>
@@ -7183,43 +7183,43 @@
         <v>836.741258523081</v>
       </c>
       <c r="M38" t="n">
-        <v>1196.576905080624</v>
+        <v>1196.576905080623</v>
       </c>
       <c r="N38" t="n">
         <v>1562.984812457614</v>
       </c>
       <c r="O38" t="n">
-        <v>1906.806429336002</v>
+        <v>1906.806429336001</v>
       </c>
       <c r="P38" t="n">
-        <v>2194.643812107885</v>
+        <v>2194.643812107884</v>
       </c>
       <c r="Q38" t="n">
-        <v>2402.969627965677</v>
+        <v>2402.969627965676</v>
       </c>
       <c r="R38" t="n">
-        <v>2510.272196103408</v>
+        <v>2510.272196103407</v>
       </c>
       <c r="S38" t="n">
-        <v>2510.272196103408</v>
+        <v>2458.457769745854</v>
       </c>
       <c r="T38" t="n">
-        <v>2510.272196103408</v>
+        <v>2458.457769745854</v>
       </c>
       <c r="U38" t="n">
-        <v>2467.892571651064</v>
+        <v>2458.457769745854</v>
       </c>
       <c r="V38" t="n">
-        <v>2110.403156777314</v>
+        <v>2458.457769745854</v>
       </c>
       <c r="W38" t="n">
-        <v>1714.01180707766</v>
+        <v>2458.457769745854</v>
       </c>
       <c r="X38" t="n">
-        <v>1302.291808245408</v>
+        <v>2046.737770913602</v>
       </c>
       <c r="Y38" t="n">
-        <v>896.9545382002981</v>
+        <v>2046.737770913602</v>
       </c>
     </row>
     <row r="39">
@@ -7235,19 +7235,19 @@
         <v>486.671896462798</v>
       </c>
       <c r="D39" t="n">
-        <v>382.831937978083</v>
+        <v>382.8319379780831</v>
       </c>
       <c r="E39" t="n">
-        <v>278.1300042510202</v>
+        <v>278.1300042510203</v>
       </c>
       <c r="F39" t="n">
-        <v>184.4841739339244</v>
+        <v>184.4841739339245</v>
       </c>
       <c r="G39" t="n">
-        <v>91.66433580662168</v>
+        <v>91.66433580662166</v>
       </c>
       <c r="H39" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="I39" t="n">
         <v>75.83346633145928</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>880.7705985416225</v>
+        <v>448.5358428822355</v>
       </c>
       <c r="C40" t="n">
-        <v>708.7980354205384</v>
+        <v>448.5358428822355</v>
       </c>
       <c r="D40" t="n">
-        <v>688.0966302268818</v>
+        <v>448.5358428822355</v>
       </c>
       <c r="E40" t="n">
-        <v>521.8884243797353</v>
+        <v>448.5358428822355</v>
       </c>
       <c r="F40" t="n">
-        <v>350.0266501542957</v>
+        <v>276.674068656796</v>
       </c>
       <c r="G40" t="n">
         <v>184.80416897444</v>
       </c>
       <c r="H40" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="I40" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="J40" t="n">
         <v>101.4579413382349</v>
@@ -7359,25 +7359,25 @@
         <v>880.7705985416225</v>
       </c>
       <c r="S40" t="n">
-        <v>880.7705985416225</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="T40" t="n">
-        <v>880.7705985416225</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="U40" t="n">
-        <v>880.7705985416225</v>
+        <v>448.5358428822355</v>
       </c>
       <c r="V40" t="n">
-        <v>880.7705985416225</v>
+        <v>448.5358428822355</v>
       </c>
       <c r="W40" t="n">
-        <v>880.7705985416225</v>
+        <v>448.5358428822355</v>
       </c>
       <c r="X40" t="n">
-        <v>880.7705985416225</v>
+        <v>448.5358428822355</v>
       </c>
       <c r="Y40" t="n">
-        <v>880.7705985416225</v>
+        <v>448.5358428822355</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1726.632034097501</v>
+        <v>1751.49991638651</v>
       </c>
       <c r="C41" t="n">
-        <v>1726.632034097501</v>
+        <v>1324.59918639981</v>
       </c>
       <c r="D41" t="n">
-        <v>1303.339413282501</v>
+        <v>901.3065655848104</v>
       </c>
       <c r="E41" t="n">
-        <v>877.3624734303589</v>
+        <v>475.3296257326679</v>
       </c>
       <c r="F41" t="n">
-        <v>452.2382916197591</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="G41" t="n">
         <v>50.20544392206814</v>
@@ -7417,10 +7417,10 @@
         <v>517.9745679998223</v>
       </c>
       <c r="L41" t="n">
-        <v>836.7412585230811</v>
+        <v>836.741258523081</v>
       </c>
       <c r="M41" t="n">
-        <v>1196.576905080624</v>
+        <v>1196.576905080623</v>
       </c>
       <c r="N41" t="n">
         <v>1562.984812457614</v>
@@ -7441,22 +7441,22 @@
         <v>2458.457769745854</v>
       </c>
       <c r="T41" t="n">
-        <v>2342.291861197811</v>
+        <v>2458.457769745854</v>
       </c>
       <c r="U41" t="n">
-        <v>2084.121448971252</v>
+        <v>2200.287357519296</v>
       </c>
       <c r="V41" t="n">
-        <v>1726.632034097501</v>
+        <v>2171.34828067804</v>
       </c>
       <c r="W41" t="n">
-        <v>1726.632034097501</v>
+        <v>2171.34828067804</v>
       </c>
       <c r="X41" t="n">
-        <v>1726.632034097501</v>
+        <v>2171.34828067804</v>
       </c>
       <c r="Y41" t="n">
-        <v>1726.632034097501</v>
+        <v>2171.34828067804</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>604.1777999452933</v>
+        <v>604.1777999452937</v>
       </c>
       <c r="C42" t="n">
-        <v>486.671896462798</v>
+        <v>486.6718964627985</v>
       </c>
       <c r="D42" t="n">
-        <v>382.831937978083</v>
+        <v>382.8319379780834</v>
       </c>
       <c r="E42" t="n">
-        <v>278.1300042510202</v>
+        <v>278.1300042510206</v>
       </c>
       <c r="F42" t="n">
-        <v>184.4841739339244</v>
+        <v>184.4841739339248</v>
       </c>
       <c r="G42" t="n">
-        <v>91.66433580662166</v>
+        <v>91.66433580662169</v>
       </c>
       <c r="H42" t="n">
         <v>50.20544392206814</v>
@@ -7493,16 +7493,16 @@
         <v>169.6881981570805</v>
       </c>
       <c r="K42" t="n">
-        <v>342.8010428266099</v>
+        <v>342.8010428266101</v>
       </c>
       <c r="L42" t="n">
-        <v>583.100038874436</v>
+        <v>583.1000388744363</v>
       </c>
       <c r="M42" t="n">
-        <v>866.66312416883</v>
+        <v>866.6631241688304</v>
       </c>
       <c r="N42" t="n">
-        <v>1160.072685361481</v>
+        <v>1160.072685361482</v>
       </c>
       <c r="O42" t="n">
         <v>1424.874394922369</v>
@@ -7511,10 +7511,10 @@
         <v>1634.259488911545</v>
       </c>
       <c r="Q42" t="n">
-        <v>1766.116009761532</v>
+        <v>1766.116009761533</v>
       </c>
       <c r="R42" t="n">
-        <v>1817.767364655853</v>
+        <v>1817.767364655854</v>
       </c>
       <c r="S42" t="n">
         <v>1759.362893661493</v>
@@ -7523,19 +7523,19 @@
         <v>1622.456576507551</v>
       </c>
       <c r="U42" t="n">
-        <v>1437.769560272917</v>
+        <v>1437.769560272918</v>
       </c>
       <c r="V42" t="n">
-        <v>1232.796421412183</v>
+        <v>1232.796421412184</v>
       </c>
       <c r="W42" t="n">
         <v>1036.275044245401</v>
       </c>
       <c r="X42" t="n">
-        <v>872.7976980120636</v>
+        <v>872.7976980120641</v>
       </c>
       <c r="Y42" t="n">
-        <v>733.104809365356</v>
+        <v>733.1048093653565</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>222.1780070431521</v>
+        <v>584.8935329546434</v>
       </c>
       <c r="C43" t="n">
-        <v>50.20544392206814</v>
+        <v>584.8935329546434</v>
       </c>
       <c r="D43" t="n">
-        <v>50.20544392206814</v>
+        <v>584.8935329546434</v>
       </c>
       <c r="E43" t="n">
-        <v>50.20544392206814</v>
+        <v>418.685327107497</v>
       </c>
       <c r="F43" t="n">
-        <v>50.20544392206814</v>
+        <v>418.685327107497</v>
       </c>
       <c r="G43" t="n">
-        <v>50.20544392206814</v>
+        <v>253.4628459276413</v>
       </c>
       <c r="H43" t="n">
-        <v>50.20544392206814</v>
+        <v>118.8641208752695</v>
       </c>
       <c r="I43" t="n">
         <v>50.20544392206814</v>
@@ -7596,25 +7596,25 @@
         <v>880.7705985416225</v>
       </c>
       <c r="S43" t="n">
-        <v>880.7705985416225</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="T43" t="n">
-        <v>880.7705985416225</v>
+        <v>584.8935329546434</v>
       </c>
       <c r="U43" t="n">
-        <v>880.7705985416225</v>
+        <v>584.8935329546434</v>
       </c>
       <c r="V43" t="n">
-        <v>687.1963795827048</v>
+        <v>584.8935329546434</v>
       </c>
       <c r="W43" t="n">
-        <v>412.3439757552178</v>
+        <v>584.8935329546434</v>
       </c>
       <c r="X43" t="n">
-        <v>412.3439757552178</v>
+        <v>584.8935329546434</v>
       </c>
       <c r="Y43" t="n">
-        <v>412.3439757552178</v>
+        <v>584.8935329546434</v>
       </c>
     </row>
     <row r="44">
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1273.366562934515</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="C44" t="n">
-        <v>846.465832947815</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="D44" t="n">
-        <v>423.1732121328153</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="E44" t="n">
-        <v>423.1732121328153</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="F44" t="n">
-        <v>423.1732121328153</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="G44" t="n">
-        <v>50.20544392206814</v>
+        <v>324.4553010199517</v>
       </c>
       <c r="H44" t="n">
-        <v>50.20544392206814</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I44" t="n">
-        <v>103.1440473010161</v>
+        <v>103.1440473010166</v>
       </c>
       <c r="J44" t="n">
-        <v>265.8602102853079</v>
+        <v>265.8602102853083</v>
       </c>
       <c r="K44" t="n">
-        <v>517.9745679998223</v>
+        <v>517.9745679998227</v>
       </c>
       <c r="L44" t="n">
-        <v>836.741258523081</v>
+        <v>836.7412585230815</v>
       </c>
       <c r="M44" t="n">
-        <v>1196.576905080623</v>
+        <v>1196.576905080624</v>
       </c>
       <c r="N44" t="n">
         <v>1562.984812457614</v>
@@ -7666,34 +7666,34 @@
         <v>1906.806429336001</v>
       </c>
       <c r="P44" t="n">
-        <v>2194.643812107884</v>
+        <v>2194.643812107885</v>
       </c>
       <c r="Q44" t="n">
-        <v>2402.969627965676</v>
+        <v>2402.969627965677</v>
       </c>
       <c r="R44" t="n">
-        <v>2510.272196103407</v>
+        <v>2510.272196103408</v>
       </c>
       <c r="S44" t="n">
-        <v>2510.272196103407</v>
+        <v>2510.272196103408</v>
       </c>
       <c r="T44" t="n">
-        <v>2510.272196103407</v>
+        <v>2299.442080053587</v>
       </c>
       <c r="U44" t="n">
-        <v>2510.272196103407</v>
+        <v>2041.271667827028</v>
       </c>
       <c r="V44" t="n">
-        <v>2510.272196103407</v>
+        <v>1683.782252953278</v>
       </c>
       <c r="W44" t="n">
-        <v>2510.272196103407</v>
+        <v>1287.390903253625</v>
       </c>
       <c r="X44" t="n">
-        <v>2098.552197271154</v>
+        <v>1287.390903253625</v>
       </c>
       <c r="Y44" t="n">
-        <v>1693.214927226045</v>
+        <v>882.053633208515</v>
       </c>
     </row>
     <row r="45">
@@ -7709,19 +7709,19 @@
         <v>486.671896462798</v>
       </c>
       <c r="D45" t="n">
-        <v>382.8319379780831</v>
+        <v>382.831937978083</v>
       </c>
       <c r="E45" t="n">
-        <v>278.1300042510203</v>
+        <v>278.1300042510202</v>
       </c>
       <c r="F45" t="n">
-        <v>184.4841739339245</v>
+        <v>184.4841739339244</v>
       </c>
       <c r="G45" t="n">
-        <v>91.66433580662166</v>
+        <v>91.66433580662161</v>
       </c>
       <c r="H45" t="n">
-        <v>50.20544392206814</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I45" t="n">
         <v>75.83346633145928</v>
@@ -7733,10 +7733,10 @@
         <v>342.8010428266099</v>
       </c>
       <c r="L45" t="n">
-        <v>583.1000388744359</v>
+        <v>583.100038874436</v>
       </c>
       <c r="M45" t="n">
-        <v>866.6631241688299</v>
+        <v>866.66312416883</v>
       </c>
       <c r="N45" t="n">
         <v>1160.072685361481</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>654.4278302313645</v>
+        <v>489.7446042989517</v>
       </c>
       <c r="C46" t="n">
-        <v>654.4278302313645</v>
+        <v>489.7446042989517</v>
       </c>
       <c r="D46" t="n">
-        <v>491.1110573581352</v>
+        <v>326.4278314257224</v>
       </c>
       <c r="E46" t="n">
-        <v>324.9028515109887</v>
+        <v>326.4278314257224</v>
       </c>
       <c r="F46" t="n">
-        <v>153.0410772855492</v>
+        <v>154.5660572002828</v>
       </c>
       <c r="G46" t="n">
-        <v>50.20544392206814</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="H46" t="n">
-        <v>50.20544392206814</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I46" t="n">
-        <v>50.20544392206814</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="J46" t="n">
         <v>101.4579413382349</v>
@@ -7833,25 +7833,25 @@
         <v>880.7705985416225</v>
       </c>
       <c r="S46" t="n">
-        <v>880.7705985416225</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="T46" t="n">
-        <v>880.7705985416225</v>
+        <v>489.7446042989517</v>
       </c>
       <c r="U46" t="n">
-        <v>880.7705985416225</v>
+        <v>489.7446042989517</v>
       </c>
       <c r="V46" t="n">
-        <v>880.7705985416225</v>
+        <v>489.7446042989517</v>
       </c>
       <c r="W46" t="n">
-        <v>880.7705985416225</v>
+        <v>489.7446042989517</v>
       </c>
       <c r="X46" t="n">
-        <v>880.7705985416225</v>
+        <v>489.7446042989517</v>
       </c>
       <c r="Y46" t="n">
-        <v>654.4278302313645</v>
+        <v>489.7446042989517</v>
       </c>
     </row>
   </sheetData>
@@ -22570,7 +22570,7 @@
         <v>22.55690342461459</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.021643902788004</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,28 +22591,28 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>2.536891551628976</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>15.49488714450009</v>
       </c>
       <c r="S2" t="n">
-        <v>78.01770889792074</v>
+        <v>96.23601616822083</v>
       </c>
       <c r="T2" t="n">
-        <v>199.1364724422805</v>
+        <v>201.3080946689003</v>
       </c>
       <c r="U2" t="n">
-        <v>242.5349081632701</v>
+        <v>255.7464778783334</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>335.6962134547129</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>374.2091289323565</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>389.3844915736301</v>
       </c>
       <c r="Y2" t="n">
         <v>401.2838973446586</v>
@@ -22625,7 +22625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>127.6377393258621</v>
+        <v>109.419432055562</v>
       </c>
       <c r="C3" t="n">
         <v>116.3308444476703</v>
@@ -22640,16 +22640,16 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G3" t="n">
-        <v>91.74485773637684</v>
+        <v>92.94681813455406</v>
       </c>
       <c r="H3" t="n">
-        <v>33.01679750036621</v>
+        <v>51.2351047706663</v>
       </c>
       <c r="I3" t="n">
         <v>10.44271547525859</v>
       </c>
       <c r="J3" t="n">
-        <v>4.888458418784966</v>
+        <v>4.888458418784962</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22670,22 +22670,22 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1.50419080107098</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>59.20159478341719</v>
+        <v>59.20159478341716</v>
       </c>
       <c r="T3" t="n">
-        <v>121.5720560939172</v>
+        <v>137.084212164969</v>
       </c>
       <c r="U3" t="n">
         <v>182.9095657031111</v>
       </c>
       <c r="V3" t="n">
-        <v>202.9234074721264</v>
+        <v>184.7051002018263</v>
       </c>
       <c r="W3" t="n">
         <v>194.556163395115</v>
@@ -22725,28 +22725,28 @@
         <v>141.1178681715301</v>
       </c>
       <c r="I4" t="n">
-        <v>94.57521008439309</v>
+        <v>93.98608624246251</v>
       </c>
       <c r="J4" t="n">
-        <v>10.77286693432815</v>
+        <v>10.77286693432814</v>
       </c>
       <c r="K4" t="n">
-        <v>4.755254677277751</v>
+        <v>4.755254677277748</v>
       </c>
       <c r="L4" t="n">
-        <v>1.176308884163522</v>
+        <v>1.176308884163518</v>
       </c>
       <c r="M4" t="n">
-        <v>0.7054336060544593</v>
+        <v>0.7054336060544557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>2.189895604189339</v>
+        <v>2.779019446119921</v>
       </c>
       <c r="P4" t="n">
-        <v>5.506790124936625</v>
+        <v>5.506790124936622</v>
       </c>
       <c r="Q4" t="n">
         <v>12.9368725197517</v>
@@ -22786,16 +22786,16 @@
         <v>397.4315733783146</v>
       </c>
       <c r="C5" t="n">
-        <v>404.4134154165328</v>
+        <v>409.1219291947815</v>
       </c>
       <c r="D5" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>403.4988631833209</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>402.6546327221936</v>
       </c>
       <c r="G5" t="n">
         <v>399.9846413962156</v>
@@ -22807,7 +22807,7 @@
         <v>22.55690342461459</v>
       </c>
       <c r="J5" t="n">
-        <v>3.021643902788007</v>
+        <v>3.021643902788004</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,7 +22828,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.536891551628983</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>15.49488714450009</v>
@@ -22849,10 +22849,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>391.5561138002499</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>383.0655900743585</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -22871,22 +22871,22 @@
         <v>102.8015588998678</v>
       </c>
       <c r="E6" t="n">
-        <v>85.43660711949205</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F6" t="n">
-        <v>74.49106474362479</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G6" t="n">
-        <v>74.72851086425398</v>
+        <v>74.72851086425396</v>
       </c>
       <c r="H6" t="n">
-        <v>40.07687814577095</v>
+        <v>33.0167975003662</v>
       </c>
       <c r="I6" t="n">
         <v>10.44271547525859</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>4.888458418784962</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22907,13 +22907,13 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.504190801070983</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>13.34053384443212</v>
       </c>
       <c r="S6" t="n">
-        <v>77.41990205371728</v>
+        <v>62.87740781110794</v>
       </c>
       <c r="T6" t="n">
         <v>139.7903633642173</v>
@@ -22922,7 +22922,7 @@
         <v>182.9095657031111</v>
       </c>
       <c r="V6" t="n">
-        <v>202.9234074721264</v>
+        <v>184.7051002018263</v>
       </c>
       <c r="W6" t="n">
         <v>194.556163395115</v>
@@ -22965,25 +22965,25 @@
         <v>94.57521008439309</v>
       </c>
       <c r="J7" t="n">
-        <v>10.77286693432815</v>
+        <v>10.77286693432814</v>
       </c>
       <c r="K7" t="n">
-        <v>4.755254677277751</v>
+        <v>4.755254677277748</v>
       </c>
       <c r="L7" t="n">
-        <v>1.176308884163522</v>
+        <v>1.176308884163518</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1163097641238739</v>
+        <v>0.7054336060544557</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>2.779019446119925</v>
+        <v>2.779019446119921</v>
       </c>
       <c r="P7" t="n">
-        <v>5.506790124936625</v>
+        <v>5.506790124936622</v>
       </c>
       <c r="Q7" t="n">
         <v>12.9368725197517</v>
@@ -22992,7 +22992,7 @@
         <v>40.29501189884586</v>
       </c>
       <c r="S7" t="n">
-        <v>166.0022870397414</v>
+        <v>165.4131631978108</v>
       </c>
       <c r="T7" t="n">
         <v>240.3098339603297</v>
@@ -23032,19 +23032,19 @@
         <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>398.3637012327545</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>376.4529045982248</v>
+        <v>393.9900343389692</v>
       </c>
       <c r="H8" t="n">
-        <v>267.9690901571059</v>
+        <v>291.4637654305288</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>21.65122101284321</v>
       </c>
       <c r="J8" t="n">
-        <v>1.152398102006437</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,19 +23065,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.1585647136001356</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>14.11143217127992</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>95.73414793822852</v>
+        <v>71.83819335543276</v>
       </c>
       <c r="T8" t="n">
-        <v>217.2583703575925</v>
+        <v>193.3894480015554</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7447159712177</v>
+        <v>231.882103826723</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
@@ -23105,25 +23105,25 @@
         <v>116.3308444476703</v>
       </c>
       <c r="D9" t="n">
-        <v>102.8015588998678</v>
+        <v>78.93906422295267</v>
       </c>
       <c r="E9" t="n">
-        <v>80.14520143074775</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F9" t="n">
-        <v>69.19965905488048</v>
+        <v>68.84687733700973</v>
       </c>
       <c r="G9" t="n">
-        <v>69.42532138281298</v>
+        <v>69.07175403124202</v>
       </c>
       <c r="H9" t="n">
-        <v>40.45094452691863</v>
+        <v>51.11371057362263</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.00995232957613</v>
       </c>
       <c r="J9" t="n">
-        <v>3.775148425455178</v>
+        <v>3.700923269594416</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,16 +23147,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>12.60890503121191</v>
+        <v>12.56012682656194</v>
       </c>
       <c r="S9" t="n">
-        <v>77.20102327270656</v>
+        <v>77.18643047130132</v>
       </c>
       <c r="T9" t="n">
-        <v>139.7428664103214</v>
+        <v>118.7216144437608</v>
       </c>
       <c r="U9" t="n">
-        <v>182.9087904535916</v>
+        <v>182.908738767164</v>
       </c>
       <c r="V9" t="n">
         <v>202.9234074721264</v>
@@ -23193,19 +23193,19 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>164.4450033473029</v>
+        <v>164.4443446983998</v>
       </c>
       <c r="H10" t="n">
-        <v>141.0300336718695</v>
+        <v>141.0241776843491</v>
       </c>
       <c r="I10" t="n">
-        <v>91.09428449497301</v>
+        <v>94.25831015433721</v>
       </c>
       <c r="J10" t="n">
-        <v>10.07441202240545</v>
+        <v>10.02784554495552</v>
       </c>
       <c r="K10" t="n">
-        <v>3.607478700117916</v>
+        <v>3.530955673011043</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23217,28 +23217,28 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1.382648484235649</v>
+        <v>1.289551455639586</v>
       </c>
       <c r="P10" t="n">
-        <v>4.311953536506703</v>
+        <v>4.232292945534102</v>
       </c>
       <c r="Q10" t="n">
-        <v>12.10962959912422</v>
+        <v>12.05447673506464</v>
       </c>
       <c r="R10" t="n">
-        <v>39.85081002223924</v>
+        <v>39.82119477246847</v>
       </c>
       <c r="S10" t="n">
-        <v>165.8301206431674</v>
+        <v>165.8186421891014</v>
       </c>
       <c r="T10" t="n">
-        <v>240.2676231067096</v>
+        <v>240.2648088795781</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3744551058947</v>
+        <v>277.3744191795909</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>275.4145681219771</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -23263,19 +23263,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>330.9660141388482</v>
       </c>
       <c r="E11" t="n">
-        <v>344.1242566974053</v>
+        <v>333.6234899856195</v>
       </c>
       <c r="F11" t="n">
-        <v>332.7792595244923</v>
+        <v>343.280026236278</v>
       </c>
       <c r="G11" t="n">
-        <v>311.6442908843243</v>
+        <v>399.7379713523258</v>
       </c>
       <c r="H11" t="n">
-        <v>201.0844647017716</v>
+        <v>289.1781451697731</v>
       </c>
       <c r="I11" t="n">
         <v>13.04715655754853</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>90.61502254307932</v>
+        <v>2.521342075077783</v>
       </c>
       <c r="T11" t="n">
         <v>216.2749815954525</v>
@@ -23339,16 +23339,16 @@
         <v>127.6377393258621</v>
       </c>
       <c r="C12" t="n">
-        <v>28.23716397966876</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D12" t="n">
-        <v>14.70787843186632</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E12" t="n">
-        <v>15.56123392179065</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F12" t="n">
-        <v>79.82565667122049</v>
+        <v>4.61569154592334</v>
       </c>
       <c r="G12" t="n">
         <v>92.81483802569352</v>
@@ -23357,7 +23357,7 @@
         <v>49.96045477193429</v>
       </c>
       <c r="I12" t="n">
-        <v>5.898663481595442</v>
+        <v>5.89866348159544</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,22 +23384,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>5.146189892547333</v>
+        <v>5.146189892547326</v>
       </c>
       <c r="S12" t="n">
-        <v>74.96842941764551</v>
+        <v>74.9684294176455</v>
       </c>
       <c r="T12" t="n">
-        <v>139.2583909078891</v>
+        <v>51.16471043988753</v>
       </c>
       <c r="U12" t="n">
-        <v>182.9008828012124</v>
+        <v>94.80720233321085</v>
       </c>
       <c r="V12" t="n">
         <v>202.9234074721264</v>
       </c>
       <c r="W12" t="n">
-        <v>194.556163395115</v>
+        <v>181.6724480524107</v>
       </c>
       <c r="X12" t="n">
         <v>161.8425727710037</v>
@@ -23430,7 +23430,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.3442347934871</v>
+        <v>87.61970558139639</v>
       </c>
       <c r="H13" t="n">
         <v>140.1341096206706</v>
@@ -23439,7 +23439,7 @@
         <v>91.24773228659839</v>
       </c>
       <c r="J13" t="n">
-        <v>2.950075267626382</v>
+        <v>2.950075267626378</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,13 +23460,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.671637333691528</v>
+        <v>3.671637333691525</v>
       </c>
       <c r="R13" t="n">
         <v>35.31988941157481</v>
       </c>
       <c r="S13" t="n">
-        <v>87.34947036139543</v>
+        <v>164.0739995734861</v>
       </c>
       <c r="T13" t="n">
         <v>239.8370665585874</v>
@@ -23506,16 +23506,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>332.7792595244922</v>
       </c>
       <c r="G14" t="n">
-        <v>399.7379713523258</v>
+        <v>311.6442908843242</v>
       </c>
       <c r="H14" t="n">
-        <v>289.1781451697731</v>
+        <v>201.0844647017715</v>
       </c>
       <c r="I14" t="n">
-        <v>13.04715655754853</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>2.521342075077811</v>
+        <v>26.0692653444121</v>
       </c>
       <c r="T14" t="n">
-        <v>128.181301127451</v>
+        <v>216.2749815954525</v>
       </c>
       <c r="U14" t="n">
-        <v>178.1338305186065</v>
+        <v>255.7267442748222</v>
       </c>
       <c r="V14" t="n">
-        <v>265.8208402570115</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
@@ -23573,28 +23573,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>114.7540239831577</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C15" t="n">
-        <v>28.23716397966875</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D15" t="n">
-        <v>14.70787843186631</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E15" t="n">
-        <v>15.56123392179063</v>
+        <v>15.5612339217906</v>
       </c>
       <c r="F15" t="n">
-        <v>92.70937201392488</v>
+        <v>79.82565667122057</v>
       </c>
       <c r="G15" t="n">
-        <v>92.81483802569352</v>
+        <v>4.721157557691981</v>
       </c>
       <c r="H15" t="n">
         <v>49.96045477193429</v>
       </c>
       <c r="I15" t="n">
-        <v>5.898663481595442</v>
+        <v>5.89866348159544</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,13 +23621,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>5.146189892547333</v>
+        <v>5.146189892547326</v>
       </c>
       <c r="S15" t="n">
-        <v>74.96842941764551</v>
+        <v>74.9684294176455</v>
       </c>
       <c r="T15" t="n">
-        <v>139.2583909078891</v>
+        <v>51.16471043988753</v>
       </c>
       <c r="U15" t="n">
         <v>182.9008828012124</v>
@@ -23670,13 +23670,13 @@
         <v>164.3442347934871</v>
       </c>
       <c r="H16" t="n">
-        <v>63.40958040857992</v>
+        <v>63.40958040857988</v>
       </c>
       <c r="I16" t="n">
         <v>91.24773228659839</v>
       </c>
       <c r="J16" t="n">
-        <v>2.950075267626382</v>
+        <v>2.950075267626378</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.671637333691528</v>
+        <v>3.671637333691525</v>
       </c>
       <c r="R16" t="n">
         <v>35.31988941157481</v>
@@ -23734,7 +23734,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
         <v>419.0596946068497</v>
@@ -23743,13 +23743,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>39.98074067448283</v>
+        <v>180.001552053219</v>
       </c>
       <c r="G17" t="n">
-        <v>398.075359501527</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>272.1509215527803</v>
+        <v>272.160537938658</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>52.72825499300271</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>208.9968982185809</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>255.5937353267583</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23822,13 +23822,13 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>55.15078071826044</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>14.60098876500183</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>41.37387781201203</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>163.5984443546759</v>
+        <v>163.5988655512729</v>
       </c>
       <c r="H19" t="n">
-        <v>133.5033546283313</v>
+        <v>78.67129482837947</v>
       </c>
       <c r="I19" t="n">
-        <v>68.8197798176227</v>
+        <v>68.83244634801184</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>1.786439317392919</v>
+        <v>1.805377848017066</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>151.0842465068989</v>
       </c>
       <c r="T19" t="n">
-        <v>236.6505074109398</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3282791608423</v>
+        <v>277.3283021352022</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>147.3423416938057</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>309.7984465834534</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>185.1039871797294</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23983,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>398.075359501527</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>272.1509215527803</v>
+        <v>272.160537938658</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>52.72825499300271</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>209.0010086278747</v>
       </c>
       <c r="U20" t="n">
-        <v>255.5937353267583</v>
+        <v>255.5938104456032</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -24056,7 +24056,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>55.97486657701383</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -24065,7 +24065,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>41.36902567056268</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24098,7 +24098,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>13.78175504769755</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
@@ -24141,13 +24141,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>163.5984443546759</v>
+        <v>163.5988655512729</v>
       </c>
       <c r="H22" t="n">
-        <v>133.5033546283313</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>68.8197798176227</v>
+        <v>68.83244634801184</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>1.786439317392919</v>
+        <v>1.805377848017066</v>
       </c>
       <c r="S22" t="n">
-        <v>151.0769061989316</v>
+        <v>151.0842465068989</v>
       </c>
       <c r="T22" t="n">
-        <v>236.6505074109398</v>
+        <v>42.85626322616906</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3282791608423</v>
+        <v>277.3283021352022</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.3447761220295</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -24208,16 +24208,16 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>398.012519220714</v>
@@ -24259,22 +24259,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>208.7218148893222</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>325.2648346521706</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>51.01925419293985</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -24369,16 +24369,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.5702563680571</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>133.2527378018481</v>
@@ -24414,19 +24414,19 @@
         <v>0.5190049372437429</v>
       </c>
       <c r="S25" t="n">
-        <v>150.5856664684936</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>236.5300678317505</v>
+        <v>224.7993730112996</v>
       </c>
       <c r="U25" t="n">
-        <v>6.065471068204619</v>
+        <v>277.3267416342995</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>62.50851573654569</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>398.012519220714</v>
+        <v>113.7741250435774</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>271.5073585269046</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>51.29628209397736</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>208.7218148893222</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.5887081042933</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>163.5702563680571</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>133.2527378018481</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>67.97209018366931</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>150.5856664684936</v>
       </c>
       <c r="T28" t="n">
-        <v>236.5300678317505</v>
+        <v>105.2953780451384</v>
       </c>
       <c r="U28" t="n">
         <v>277.3267416342995</v>
@@ -24663,13 +24663,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>102.3262839566067</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>318.1593924405078</v>
       </c>
       <c r="G29" t="n">
-        <v>251.1081317864125</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>271.5073585269046</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>51.29628209397736</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>208.7218148893222</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24742,13 +24742,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>95.02626434047551</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>163.5702563680571</v>
+        <v>19.35097668188143</v>
       </c>
       <c r="H31" t="n">
-        <v>133.2527378018481</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>67.97209018366931</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0.5190049372437429</v>
       </c>
       <c r="S31" t="n">
-        <v>150.5856664684936</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>236.5300678317505</v>
@@ -24906,7 +24906,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>319.2552345958999</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
         <v>419.0596946068497</v>
@@ -24928,7 +24928,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>293.2385714626205</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24967,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>51.29628209397736</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>208.7218148893222</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>255.5887081042933</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>163.5702563680571</v>
+        <v>19.35097668188146</v>
       </c>
       <c r="H34" t="n">
-        <v>133.2527378018481</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>67.97209018366931</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0.5190049372437429</v>
       </c>
       <c r="S34" t="n">
-        <v>150.5856664684936</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>236.5300678317505</v>
@@ -25134,16 +25134,16 @@
         <v>277.3267416342995</v>
       </c>
       <c r="V34" t="n">
-        <v>192.9563276497132</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>25.64038554619341</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25216,10 +25216,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>45.9843448400411</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0.4752416572677021</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
@@ -25326,13 +25326,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>163.5702563680571</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>133.2527378018481</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>67.97209018366931</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>236.5300678317505</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3267416342995</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -25377,10 +25377,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>43.94166354167075</v>
       </c>
     </row>
     <row r="38">
@@ -25393,22 +25393,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>394.8717631936984</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>398.012519220714</v>
       </c>
       <c r="H38" t="n">
-        <v>271.5073585269046</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>51.29628209397736</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>208.7218148893222</v>
       </c>
       <c r="U38" t="n">
-        <v>213.632879896473</v>
+        <v>255.5887081042933</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -25551,19 +25551,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>141.1892140027769</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>72.61905568252476</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>0.5190049372437429</v>
       </c>
       <c r="S40" t="n">
-        <v>150.5856664684936</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>236.5300678317505</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3267416342995</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>398.012519220714</v>
       </c>
       <c r="H41" t="n">
         <v>271.5073585269046</v>
@@ -25681,13 +25681,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>93.71756542675892</v>
+        <v>208.7218148893222</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>325.2648346521701</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>163.5702563680571</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>133.2527378018481</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>67.97209018366931</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,19 +25836,19 @@
         <v>0.5190049372437429</v>
       </c>
       <c r="S43" t="n">
-        <v>150.5856664684936</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>236.5300678317505</v>
+        <v>94.19743936913486</v>
       </c>
       <c r="U43" t="n">
         <v>277.3267416342995</v>
       </c>
       <c r="V43" t="n">
-        <v>87.25587594872292</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>261.6400510026511</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
@@ -25879,10 +25879,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>28.77442869207437</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>271.5073585269046</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25918,19 +25918,19 @@
         <v>51.29628209397736</v>
       </c>
       <c r="T44" t="n">
-        <v>208.7218148893222</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.5887081042933</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26031,13 +26031,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>61.76297933821093</v>
+        <v>60.25324922262463</v>
       </c>
       <c r="H46" t="n">
         <v>133.2527378018481</v>
@@ -26073,10 +26073,10 @@
         <v>0.5190049372437429</v>
       </c>
       <c r="S46" t="n">
-        <v>150.5856664684936</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>236.5300678317505</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>277.3267416342995</v>
@@ -26091,7 +26091,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>60486.38092478197</v>
+        <v>60486.380924782</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>60486.38092478197</v>
+        <v>60486.38092478199</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>65066.90681820187</v>
+        <v>65366.68805500841</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>109112.011902253</v>
+        <v>109112.0119022531</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>431326.5827499141</v>
+        <v>431144.6314633569</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>431326.5827499141</v>
+        <v>431144.631463357</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>443503.415296834</v>
+        <v>443503.4152968341</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>443503.4152968341</v>
+        <v>443503.415296834</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>443503.415296834</v>
+        <v>443503.4152968339</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>443503.4152968338</v>
+        <v>443503.415296834</v>
       </c>
     </row>
     <row r="16">
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>20937.59339703992</v>
+      </c>
+      <c r="C2" t="n">
         <v>20937.59339703991</v>
       </c>
-      <c r="C2" t="n">
-        <v>20937.59339703992</v>
-      </c>
       <c r="D2" t="n">
-        <v>22523.1600524545</v>
+        <v>22626.93048057984</v>
       </c>
       <c r="E2" t="n">
-        <v>37769.54258154908</v>
+        <v>37769.54258154914</v>
       </c>
       <c r="F2" t="n">
-        <v>37769.54258154911</v>
+        <v>37769.54258154914</v>
       </c>
       <c r="G2" t="n">
-        <v>149305.3555672779</v>
+        <v>149242.3724296236</v>
       </c>
       <c r="H2" t="n">
-        <v>149305.355567278</v>
+        <v>149242.3724296236</v>
       </c>
       <c r="I2" t="n">
-        <v>153520.4129873656</v>
+        <v>153520.4129873655</v>
       </c>
       <c r="J2" t="n">
         <v>153520.4129873655</v>
@@ -26346,16 +26346,16 @@
         <v>153520.4129873655</v>
       </c>
       <c r="M2" t="n">
-        <v>153520.4129873654</v>
+        <v>153520.4129873655</v>
       </c>
       <c r="N2" t="n">
-        <v>153520.4129873655</v>
+        <v>153520.4129873656</v>
       </c>
       <c r="O2" t="n">
         <v>153520.4129873656</v>
       </c>
       <c r="P2" t="n">
-        <v>153520.4129873656</v>
+        <v>153520.4129873655</v>
       </c>
     </row>
     <row r="3">
@@ -26365,46 +26365,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80658.96448328666</v>
+        <v>80658.96448328668</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>6335.473445957319</v>
+        <v>6757.863891381611</v>
       </c>
       <c r="E3" t="n">
-        <v>64178.10880470012</v>
+        <v>63779.3323923321</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>463992.822644402</v>
+        <v>463730.2655197548</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>17023.19029458227</v>
+        <v>17277.55787034319</v>
       </c>
       <c r="J3" t="n">
-        <v>4766.710787430337</v>
+        <v>4766.710787430462</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1339.207157169983</v>
+        <v>1428.493034927636</v>
       </c>
       <c r="M3" t="n">
-        <v>16094.58303910212</v>
+        <v>16006.66842388187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>125067.9903041142</v>
+        <v>124996.9083992358</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13.22273493796322</v>
+        <v>13.22273493796323</v>
       </c>
       <c r="C4" t="n">
         <v>13.22273493796322</v>
       </c>
       <c r="D4" t="n">
-        <v>17.15222569169691</v>
+        <v>17.41872404354271</v>
       </c>
       <c r="E4" t="n">
-        <v>62.45231285262344</v>
+        <v>62.45231285262346</v>
       </c>
       <c r="F4" t="n">
-        <v>62.45231285262344</v>
+        <v>62.45231285262346</v>
       </c>
       <c r="G4" t="n">
-        <v>426.5961278544149</v>
+        <v>426.389060886574</v>
       </c>
       <c r="H4" t="n">
-        <v>426.5961278544149</v>
+        <v>426.389060886574</v>
       </c>
       <c r="I4" t="n">
         <v>440.4537918539642</v>
       </c>
       <c r="J4" t="n">
-        <v>440.4537918539642</v>
+        <v>440.4537918539641</v>
       </c>
       <c r="K4" t="n">
         <v>440.4537918539642</v>
       </c>
       <c r="L4" t="n">
-        <v>440.4537918539642</v>
+        <v>440.4537918539641</v>
       </c>
       <c r="M4" t="n">
         <v>440.4537918539642</v>
       </c>
       <c r="N4" t="n">
-        <v>440.4537918539642</v>
+        <v>440.4537918539641</v>
       </c>
       <c r="O4" t="n">
         <v>440.4537918539642</v>
       </c>
       <c r="P4" t="n">
-        <v>440.4537918539642</v>
+        <v>440.4537918539641</v>
       </c>
     </row>
     <row r="5">
@@ -26475,28 +26475,28 @@
         <v>36421.91313065494</v>
       </c>
       <c r="D5" t="n">
-        <v>36863.06036917747</v>
+        <v>36892.47196409089</v>
       </c>
       <c r="E5" t="n">
-        <v>8380.365801579235</v>
+        <v>8380.365801579239</v>
       </c>
       <c r="F5" t="n">
-        <v>8380.365801579237</v>
+        <v>8380.365801579239</v>
       </c>
       <c r="G5" t="n">
-        <v>48994.47502708899</v>
+        <v>48971.42444021667</v>
       </c>
       <c r="H5" t="n">
-        <v>48994.47502708899</v>
+        <v>48971.42444021667</v>
       </c>
       <c r="I5" t="n">
+        <v>50537.10295659395</v>
+      </c>
+      <c r="J5" t="n">
         <v>50537.10295659397</v>
       </c>
-      <c r="J5" t="n">
-        <v>50537.10295659395</v>
-      </c>
       <c r="K5" t="n">
-        <v>50537.10295659397</v>
+        <v>50537.10295659396</v>
       </c>
       <c r="L5" t="n">
         <v>50537.10295659397</v>
@@ -26505,13 +26505,13 @@
         <v>50537.10295659396</v>
       </c>
       <c r="N5" t="n">
-        <v>50537.10295659397</v>
+        <v>50537.10295659396</v>
       </c>
       <c r="O5" t="n">
         <v>50537.10295659396</v>
       </c>
       <c r="P5" t="n">
-        <v>50537.10295659396</v>
+        <v>50537.10295659397</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-96156.50695183963</v>
+        <v>-97496.29365855068</v>
       </c>
       <c r="C6" t="n">
-        <v>-15497.54246855298</v>
+        <v>-16837.32917526401</v>
       </c>
       <c r="D6" t="n">
-        <v>-20692.52598837198</v>
+        <v>-22371.22559962755</v>
       </c>
       <c r="E6" t="n">
-        <v>-34851.38433758289</v>
+        <v>-35698.88380312301</v>
       </c>
       <c r="F6" t="n">
-        <v>29326.72446711725</v>
+        <v>28080.44858920908</v>
       </c>
       <c r="G6" t="n">
-        <v>-364108.5382320676</v>
+        <v>-364512.6889699867</v>
       </c>
       <c r="H6" t="n">
-        <v>99884.28441233459</v>
+        <v>99217.57654976808</v>
       </c>
       <c r="I6" t="n">
-        <v>85519.66594433541</v>
+        <v>84662.08288180963</v>
       </c>
       <c r="J6" t="n">
-        <v>97776.14545148725</v>
+        <v>97172.92996472237</v>
       </c>
       <c r="K6" t="n">
-        <v>102542.8562389176</v>
+        <v>101939.6407521528</v>
       </c>
       <c r="L6" t="n">
-        <v>101203.6490817476</v>
+        <v>100511.1477172252</v>
       </c>
       <c r="M6" t="n">
-        <v>86448.2731998154</v>
+        <v>85932.97232827093</v>
       </c>
       <c r="N6" t="n">
-        <v>102542.8562389176</v>
+        <v>101939.6407521529</v>
       </c>
       <c r="O6" t="n">
-        <v>-22525.1340651965</v>
+        <v>-23057.26764708294</v>
       </c>
       <c r="P6" t="n">
-        <v>102542.8562389177</v>
+        <v>101939.6407521528</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>77.36880956975661</v>
+        <v>77.36880956975662</v>
       </c>
       <c r="C3" t="n">
-        <v>77.36880956975661</v>
+        <v>77.36880956975662</v>
       </c>
       <c r="D3" t="n">
-        <v>82.84723950768695</v>
+        <v>83.21249026304839</v>
       </c>
       <c r="E3" t="n">
         <v>138.7279829873737</v>
@@ -26752,10 +26752,10 @@
         <v>138.7279829873737</v>
       </c>
       <c r="G3" t="n">
-        <v>552.3026808735638</v>
+        <v>552.0691082152392</v>
       </c>
       <c r="H3" t="n">
-        <v>552.3026808735638</v>
+        <v>552.0691082152392</v>
       </c>
       <c r="I3" t="n">
         <v>567.9342007257877</v>
@@ -26789,34 +26789,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.21830727030009</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="C4" t="n">
-        <v>18.21830727030009</v>
+        <v>18.2183072703001</v>
       </c>
       <c r="D4" t="n">
-        <v>23.50971295904439</v>
+        <v>23.86249467691514</v>
       </c>
       <c r="E4" t="n">
-        <v>88.09368046800149</v>
+        <v>88.09368046800154</v>
       </c>
       <c r="F4" t="n">
-        <v>88.09368046800151</v>
+        <v>88.09368046800154</v>
       </c>
       <c r="G4" t="n">
-        <v>607.8006017112715</v>
+        <v>607.5052283079681</v>
       </c>
       <c r="H4" t="n">
-        <v>607.8006017112715</v>
+        <v>607.5052283079681</v>
       </c>
       <c r="I4" t="n">
+        <v>627.5680490258517</v>
+      </c>
+      <c r="J4" t="n">
         <v>627.5680490258519</v>
       </c>
-      <c r="J4" t="n">
-        <v>627.5680490258517</v>
-      </c>
       <c r="K4" t="n">
-        <v>627.5680490258519</v>
+        <v>627.5680490258518</v>
       </c>
       <c r="L4" t="n">
         <v>627.5680490258519</v>
@@ -26825,13 +26825,13 @@
         <v>627.5680490258518</v>
       </c>
       <c r="N4" t="n">
-        <v>627.5680490258519</v>
+        <v>627.5680490258518</v>
       </c>
       <c r="O4" t="n">
         <v>627.5680490258518</v>
       </c>
       <c r="P4" t="n">
-        <v>627.5680490258518</v>
+        <v>627.5680490258519</v>
       </c>
     </row>
   </sheetData>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>77.36880956975661</v>
+        <v>77.36880956975662</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>5.478429937930343</v>
+        <v>5.843680693291773</v>
       </c>
       <c r="E3" t="n">
-        <v>55.8807434796867</v>
+        <v>55.51549272432528</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>413.5746978861901</v>
+        <v>413.3411252278655</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>15.63151985222396</v>
+        <v>15.86509251054849</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,46 +27011,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.21830727030009</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>5.291405688744298</v>
+        <v>5.644187406615043</v>
       </c>
       <c r="E4" t="n">
-        <v>64.5839675089571</v>
+        <v>64.23118579108639</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>519.70692124327</v>
+        <v>519.4115478399666</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>19.76744731458041</v>
+        <v>20.0628207178836</v>
       </c>
       <c r="J4" t="n">
-        <v>18.21830727029986</v>
+        <v>18.21830727030034</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>5.291405688744298</v>
+        <v>5.644187406615156</v>
       </c>
       <c r="M4" t="n">
-        <v>64.58396750895699</v>
+        <v>64.23118579108628</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>519.7069212432699</v>
+        <v>519.4115478399666</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>18.21830727030009</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>5.291405688744298</v>
+        <v>5.644187406615043</v>
       </c>
       <c r="M4" t="n">
-        <v>64.5839675089571</v>
+        <v>64.23118579108639</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>519.70692124327</v>
+        <v>519.4115478399666</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31047,43 +31047,43 @@
         <v>3.185339983944802</v>
       </c>
       <c r="I2" t="n">
-        <v>11.99099911934891</v>
+        <v>11.99099911934892</v>
       </c>
       <c r="J2" t="n">
         <v>26.39831558279852</v>
       </c>
       <c r="K2" t="n">
-        <v>39.56423200124192</v>
+        <v>39.56423200124193</v>
       </c>
       <c r="L2" t="n">
-        <v>49.08292830624871</v>
+        <v>49.08292830624872</v>
       </c>
       <c r="M2" t="n">
-        <v>54.61421500850462</v>
+        <v>54.61421500850463</v>
       </c>
       <c r="N2" t="n">
         <v>55.49793010474612</v>
       </c>
       <c r="O2" t="n">
-        <v>52.40512166189479</v>
+        <v>52.4051216618948</v>
       </c>
       <c r="P2" t="n">
         <v>44.72655890308729</v>
       </c>
       <c r="Q2" t="n">
-        <v>33.58778305296906</v>
+        <v>33.58778305296907</v>
       </c>
       <c r="R2" t="n">
         <v>19.53776275029638</v>
       </c>
       <c r="S2" t="n">
-        <v>7.087605017370167</v>
+        <v>7.087605017370168</v>
       </c>
       <c r="T2" t="n">
         <v>1.361535533232601</v>
       </c>
       <c r="U2" t="n">
-        <v>0.02488243121841416</v>
+        <v>0.02488243121841417</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.166415930017967</v>
+        <v>0.1664159300179671</v>
       </c>
       <c r="H3" t="n">
-        <v>1.607227534647208</v>
+        <v>1.607227534647209</v>
       </c>
       <c r="I3" t="n">
-        <v>5.72967127474141</v>
+        <v>5.729671274741411</v>
       </c>
       <c r="J3" t="n">
         <v>15.72265591454837</v>
       </c>
       <c r="K3" t="n">
-        <v>26.87252322575216</v>
+        <v>26.87252322575217</v>
       </c>
       <c r="L3" t="n">
-        <v>36.13342375236605</v>
+        <v>36.13342375236606</v>
       </c>
       <c r="M3" t="n">
-        <v>32.49398676858092</v>
+        <v>41.31508778262809</v>
       </c>
       <c r="N3" t="n">
-        <v>39.56133548384176</v>
+        <v>39.56133548384177</v>
       </c>
       <c r="O3" t="n">
-        <v>39.5945831389678</v>
+        <v>39.59458313896781</v>
       </c>
       <c r="P3" t="n">
-        <v>31.77814368913268</v>
+        <v>22.95704267508555</v>
       </c>
       <c r="Q3" t="n">
-        <v>21.24284748790751</v>
+        <v>21.24284748790752</v>
       </c>
       <c r="R3" t="n">
         <v>10.33238554971203</v>
       </c>
       <c r="S3" t="n">
-        <v>3.091102910640745</v>
+        <v>3.091102910640746</v>
       </c>
       <c r="T3" t="n">
-        <v>0.6707729810811914</v>
+        <v>0.6707729810811917</v>
       </c>
       <c r="U3" t="n">
         <v>0.01094841644855047</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1395175254536594</v>
+        <v>0.1395175254536595</v>
       </c>
       <c r="H4" t="n">
         <v>1.240437635397082</v>
       </c>
       <c r="I4" t="n">
-        <v>4.195672492733687</v>
+        <v>4.195672492733688</v>
       </c>
       <c r="J4" t="n">
-        <v>9.863889049573721</v>
+        <v>9.863889049573723</v>
       </c>
       <c r="K4" t="n">
         <v>16.20939977543425</v>
@@ -31220,7 +31220,7 @@
         <v>21.87000628543136</v>
       </c>
       <c r="N4" t="n">
-        <v>21.34998641783137</v>
+        <v>21.34998641783138</v>
       </c>
       <c r="O4" t="n">
         <v>19.72016805230453</v>
@@ -31232,16 +31232,16 @@
         <v>11.68269024503325</v>
       </c>
       <c r="R4" t="n">
-        <v>6.273215280852722</v>
+        <v>6.273215280852723</v>
       </c>
       <c r="S4" t="n">
         <v>2.431409966315137</v>
       </c>
       <c r="T4" t="n">
-        <v>0.5961203360292719</v>
+        <v>0.5961203360292721</v>
       </c>
       <c r="U4" t="n">
-        <v>0.007610046842926888</v>
+        <v>0.007610046842926889</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31284,43 +31284,43 @@
         <v>3.185339983944802</v>
       </c>
       <c r="I5" t="n">
-        <v>11.99099911934891</v>
+        <v>11.99099911934892</v>
       </c>
       <c r="J5" t="n">
         <v>26.39831558279852</v>
       </c>
       <c r="K5" t="n">
-        <v>39.56423200124192</v>
+        <v>39.56423200124193</v>
       </c>
       <c r="L5" t="n">
-        <v>49.08292830624871</v>
+        <v>49.08292830624872</v>
       </c>
       <c r="M5" t="n">
-        <v>54.61421500850462</v>
+        <v>54.61421500850463</v>
       </c>
       <c r="N5" t="n">
         <v>55.49793010474612</v>
       </c>
       <c r="O5" t="n">
-        <v>52.40512166189479</v>
+        <v>52.4051216618948</v>
       </c>
       <c r="P5" t="n">
         <v>44.72655890308729</v>
       </c>
       <c r="Q5" t="n">
-        <v>33.58778305296906</v>
+        <v>33.58778305296907</v>
       </c>
       <c r="R5" t="n">
         <v>19.53776275029638</v>
       </c>
       <c r="S5" t="n">
-        <v>7.087605017370167</v>
+        <v>7.087605017370168</v>
       </c>
       <c r="T5" t="n">
         <v>1.361535533232601</v>
       </c>
       <c r="U5" t="n">
-        <v>0.02488243121841416</v>
+        <v>0.02488243121841417</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.166415930017967</v>
+        <v>0.1664159300179671</v>
       </c>
       <c r="H6" t="n">
-        <v>1.607227534647208</v>
+        <v>1.607227534647209</v>
       </c>
       <c r="I6" t="n">
-        <v>5.72967127474141</v>
+        <v>5.729671274741411</v>
       </c>
       <c r="J6" t="n">
         <v>15.72265591454837</v>
       </c>
       <c r="K6" t="n">
-        <v>26.87252322575216</v>
+        <v>26.87252322575217</v>
       </c>
       <c r="L6" t="n">
-        <v>36.13342375236605</v>
+        <v>36.13342375236606</v>
       </c>
       <c r="M6" t="n">
-        <v>32.49398676858092</v>
+        <v>41.31508778262808</v>
       </c>
       <c r="N6" t="n">
-        <v>39.56133548384176</v>
+        <v>39.56133548384177</v>
       </c>
       <c r="O6" t="n">
-        <v>39.5945831389678</v>
+        <v>30.77348212492065</v>
       </c>
       <c r="P6" t="n">
         <v>31.77814368913268</v>
       </c>
       <c r="Q6" t="n">
-        <v>21.24284748790751</v>
+        <v>21.24284748790752</v>
       </c>
       <c r="R6" t="n">
         <v>10.33238554971203</v>
       </c>
       <c r="S6" t="n">
-        <v>3.091102910640745</v>
+        <v>3.091102910640746</v>
       </c>
       <c r="T6" t="n">
-        <v>0.6707729810811914</v>
+        <v>0.6707729810811917</v>
       </c>
       <c r="U6" t="n">
         <v>0.01094841644855047</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1395175254536594</v>
+        <v>0.1395175254536595</v>
       </c>
       <c r="H7" t="n">
         <v>1.240437635397082</v>
       </c>
       <c r="I7" t="n">
-        <v>4.195672492733687</v>
+        <v>4.195672492733688</v>
       </c>
       <c r="J7" t="n">
-        <v>9.863889049573721</v>
+        <v>9.863889049573723</v>
       </c>
       <c r="K7" t="n">
         <v>16.20939977543425</v>
@@ -31457,7 +31457,7 @@
         <v>21.87000628543136</v>
       </c>
       <c r="N7" t="n">
-        <v>21.34998641783137</v>
+        <v>21.34998641783138</v>
       </c>
       <c r="O7" t="n">
         <v>19.72016805230453</v>
@@ -31469,16 +31469,16 @@
         <v>11.68269024503325</v>
       </c>
       <c r="R7" t="n">
-        <v>6.273215280852722</v>
+        <v>6.273215280852723</v>
       </c>
       <c r="S7" t="n">
         <v>2.431409966315137</v>
       </c>
       <c r="T7" t="n">
-        <v>0.5961203360292719</v>
+        <v>0.5961203360292721</v>
       </c>
       <c r="U7" t="n">
-        <v>0.007610046842926888</v>
+        <v>0.007610046842926889</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3330542291766307</v>
+        <v>0.3345225739218023</v>
       </c>
       <c r="H8" t="n">
-        <v>3.41089162455517</v>
+        <v>3.425929310176659</v>
       </c>
       <c r="I8" t="n">
-        <v>12.84007317033207</v>
+        <v>12.8966815311203</v>
       </c>
       <c r="J8" t="n">
-        <v>28.26756138358009</v>
+        <v>28.3921853083956</v>
       </c>
       <c r="K8" t="n">
-        <v>42.36574690462687</v>
+        <v>42.5525258625055</v>
       </c>
       <c r="L8" t="n">
-        <v>52.55845527079119</v>
+        <v>52.79017108416487</v>
       </c>
       <c r="M8" t="n">
-        <v>58.4814084189111</v>
+        <v>58.73923690814672</v>
       </c>
       <c r="N8" t="n">
-        <v>59.42769874755921</v>
+        <v>59.68969917130205</v>
       </c>
       <c r="O8" t="n">
-        <v>56.11589075618408</v>
+        <v>56.36329032686712</v>
       </c>
       <c r="P8" t="n">
-        <v>47.893614473386</v>
+        <v>48.10476428317261</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.96610989099791</v>
+        <v>36.12467460459806</v>
       </c>
       <c r="R8" t="n">
-        <v>20.92121772351655</v>
+        <v>21.01345363411544</v>
       </c>
       <c r="S8" t="n">
-        <v>7.58947324736248</v>
+        <v>7.622933153243078</v>
       </c>
       <c r="T8" t="n">
-        <v>1.457944888220702</v>
+        <v>1.46437256734269</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02664433833413045</v>
+        <v>0.02676180591374418</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1781997227146474</v>
+        <v>0.1789853564148588</v>
       </c>
       <c r="H9" t="n">
-        <v>1.721034164112516</v>
+        <v>1.728621731690874</v>
       </c>
       <c r="I9" t="n">
-        <v>6.135385189956063</v>
+        <v>6.162434420423867</v>
       </c>
       <c r="J9" t="n">
-        <v>16.83596590787816</v>
+        <v>16.91019106373892</v>
       </c>
       <c r="K9" t="n">
-        <v>28.77534732975953</v>
+        <v>28.90220994353446</v>
       </c>
       <c r="L9" t="n">
-        <v>38.69200558328343</v>
+        <v>38.86258802332275</v>
       </c>
       <c r="M9" t="n">
-        <v>45.15174553168938</v>
+        <v>45.35080719336137</v>
       </c>
       <c r="N9" t="n">
-        <v>44.85274117258605</v>
+        <v>38.80328482851637</v>
       </c>
       <c r="O9" t="n">
-        <v>35.88565376587235</v>
+        <v>42.58516942735459</v>
       </c>
       <c r="P9" t="n">
-        <v>34.02833126118561</v>
+        <v>34.17835284030756</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>22.84732374165812</v>
       </c>
       <c r="R9" t="n">
-        <v>11.06401436293224</v>
+        <v>11.1127925675822</v>
       </c>
       <c r="S9" t="n">
-        <v>3.309981691651453</v>
+        <v>3.324574493056696</v>
       </c>
       <c r="T9" t="n">
-        <v>0.7182699349770215</v>
+        <v>0.7214365901107683</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01172366596806891</v>
+        <v>0.0117753523957144</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1493966614073043</v>
+        <v>0.1500553103104151</v>
       </c>
       <c r="H10" t="n">
-        <v>1.32827213505767</v>
+        <v>1.334128122578055</v>
       </c>
       <c r="I10" t="n">
-        <v>4.492765053957844</v>
+        <v>4.512572422789576</v>
       </c>
       <c r="J10" t="n">
-        <v>10.56234396149642</v>
+        <v>10.60891043894635</v>
       </c>
       <c r="K10" t="n">
-        <v>17.35717575259408</v>
+        <v>17.43369877970095</v>
       </c>
       <c r="L10" t="n">
-        <v>22.21120909686414</v>
+        <v>22.30913222560481</v>
       </c>
       <c r="M10" t="n">
-        <v>23.41860575132862</v>
+        <v>23.52185196074989</v>
       </c>
       <c r="N10" t="n">
-        <v>22.8617636497196</v>
+        <v>22.96255489504745</v>
       </c>
       <c r="O10" t="n">
-        <v>21.1165390141888</v>
+        <v>21.20963604278487</v>
       </c>
       <c r="P10" t="n">
-        <v>18.06884712147978</v>
+        <v>18.14850771245238</v>
       </c>
       <c r="Q10" t="n">
-        <v>12.50993316566073</v>
+        <v>12.56508602972031</v>
       </c>
       <c r="R10" t="n">
-        <v>6.717417157459336</v>
+        <v>6.747032407230118</v>
       </c>
       <c r="S10" t="n">
-        <v>2.603576362889112</v>
+        <v>2.615054816955142</v>
       </c>
       <c r="T10" t="n">
-        <v>0.6383311896493911</v>
+        <v>0.6411454167808645</v>
       </c>
       <c r="U10" t="n">
-        <v>0.00814890880403479</v>
+        <v>0.008184835107840835</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5577004341200946</v>
+        <v>0.5577004341200947</v>
       </c>
       <c r="H11" t="n">
-        <v>5.711549570932421</v>
+        <v>5.711549570932422</v>
       </c>
       <c r="I11" t="n">
         <v>21.50074598641497</v>
       </c>
       <c r="J11" t="n">
-        <v>47.33412722040043</v>
+        <v>47.33412722040044</v>
       </c>
       <c r="K11" t="n">
-        <v>70.94158659670404</v>
+        <v>70.94158659670406</v>
       </c>
       <c r="L11" t="n">
-        <v>88.00931125740691</v>
+        <v>88.00931125740694</v>
       </c>
       <c r="M11" t="n">
-        <v>97.92731635269014</v>
+        <v>97.92731635269016</v>
       </c>
       <c r="N11" t="n">
-        <v>99.51188271113386</v>
+        <v>99.51188271113389</v>
       </c>
       <c r="O11" t="n">
-        <v>93.96624901935218</v>
+        <v>93.96624901935219</v>
       </c>
       <c r="P11" t="n">
-        <v>80.19801955201233</v>
+        <v>80.19801955201234</v>
       </c>
       <c r="Q11" t="n">
-        <v>60.22537275508641</v>
+        <v>60.22537275508643</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479643</v>
+        <v>35.03264989479644</v>
       </c>
       <c r="S11" t="n">
         <v>12.70859864251167</v>
@@ -31794,7 +31794,7 @@
         <v>2.441333650360716</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04461603472960756</v>
+        <v>0.04461603472960757</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2983960388785018</v>
+        <v>0.2983960388785019</v>
       </c>
       <c r="H12" t="n">
-        <v>2.881877533379215</v>
+        <v>2.881877533379216</v>
       </c>
       <c r="I12" t="n">
         <v>10.27372326840456</v>
       </c>
       <c r="J12" t="n">
-        <v>28.191881901236</v>
+        <v>28.19188190123601</v>
       </c>
       <c r="K12" t="n">
-        <v>48.18441650609562</v>
+        <v>48.18441650609563</v>
       </c>
       <c r="L12" t="n">
-        <v>64.78989431877295</v>
+        <v>64.78989431877297</v>
       </c>
       <c r="M12" t="n">
-        <v>75.60675072811863</v>
+        <v>75.60675072811864</v>
       </c>
       <c r="N12" t="n">
-        <v>77.60783644498369</v>
+        <v>77.6078364449837</v>
       </c>
       <c r="O12" t="n">
-        <v>70.99600842562319</v>
+        <v>70.9960084256232</v>
       </c>
       <c r="P12" t="n">
-        <v>56.98055588022901</v>
+        <v>56.98055588022902</v>
       </c>
       <c r="Q12" t="n">
         <v>38.08999261192947</v>
       </c>
       <c r="R12" t="n">
-        <v>18.52672950159681</v>
+        <v>18.52672950159682</v>
       </c>
       <c r="S12" t="n">
-        <v>5.542575546712519</v>
+        <v>5.54257554671252</v>
       </c>
       <c r="T12" t="n">
         <v>1.2027454374094</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01963131834726986</v>
+        <v>0.01963131834726987</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,28 +31913,28 @@
         <v>0.2501652152231328</v>
       </c>
       <c r="H13" t="n">
-        <v>2.224196186256582</v>
+        <v>2.224196186256583</v>
       </c>
       <c r="I13" t="n">
-        <v>7.523150290528395</v>
+        <v>7.523150290528397</v>
       </c>
       <c r="J13" t="n">
         <v>17.68668071627549</v>
       </c>
       <c r="K13" t="n">
-        <v>29.06464955046942</v>
+        <v>29.06464955046943</v>
       </c>
       <c r="L13" t="n">
-        <v>37.19274481599195</v>
+        <v>37.19274481599196</v>
       </c>
       <c r="M13" t="n">
         <v>39.21453460084071</v>
       </c>
       <c r="N13" t="n">
-        <v>38.28210061682724</v>
+        <v>38.28210061682726</v>
       </c>
       <c r="O13" t="n">
-        <v>35.35971605717518</v>
+        <v>35.35971605717519</v>
       </c>
       <c r="P13" t="n">
         <v>30.25634566662325</v>
@@ -31946,7 +31946,7 @@
         <v>11.24833776812377</v>
       </c>
       <c r="S13" t="n">
-        <v>4.359697432570413</v>
+        <v>4.359697432570414</v>
       </c>
       <c r="T13" t="n">
         <v>1.068887737771567</v>
@@ -31989,40 +31989,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5577004341200946</v>
+        <v>0.5577004341200947</v>
       </c>
       <c r="H14" t="n">
-        <v>5.711549570932421</v>
+        <v>5.711549570932422</v>
       </c>
       <c r="I14" t="n">
         <v>21.50074598641497</v>
       </c>
       <c r="J14" t="n">
-        <v>47.33412722040043</v>
+        <v>47.33412722040044</v>
       </c>
       <c r="K14" t="n">
-        <v>70.94158659670404</v>
+        <v>70.94158659670406</v>
       </c>
       <c r="L14" t="n">
-        <v>88.00931125740691</v>
+        <v>88.00931125740694</v>
       </c>
       <c r="M14" t="n">
-        <v>97.92731635269014</v>
+        <v>97.92731635269016</v>
       </c>
       <c r="N14" t="n">
-        <v>99.51188271113386</v>
+        <v>99.51188271113389</v>
       </c>
       <c r="O14" t="n">
-        <v>93.96624901935218</v>
+        <v>93.96624901935219</v>
       </c>
       <c r="P14" t="n">
-        <v>80.19801955201233</v>
+        <v>80.19801955201234</v>
       </c>
       <c r="Q14" t="n">
-        <v>60.22537275508641</v>
+        <v>60.22537275508643</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479643</v>
+        <v>35.03264989479644</v>
       </c>
       <c r="S14" t="n">
         <v>12.70859864251167</v>
@@ -32031,7 +32031,7 @@
         <v>2.441333650360716</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04461603472960756</v>
+        <v>0.04461603472960757</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2983960388785018</v>
+        <v>0.2983960388785019</v>
       </c>
       <c r="H15" t="n">
-        <v>2.881877533379215</v>
+        <v>2.881877533379216</v>
       </c>
       <c r="I15" t="n">
         <v>10.27372326840456</v>
       </c>
       <c r="J15" t="n">
-        <v>28.191881901236</v>
+        <v>28.19188190123601</v>
       </c>
       <c r="K15" t="n">
-        <v>48.18441650609562</v>
+        <v>48.18441650609563</v>
       </c>
       <c r="L15" t="n">
-        <v>64.78989431877295</v>
+        <v>64.78989431877297</v>
       </c>
       <c r="M15" t="n">
-        <v>75.60675072811863</v>
+        <v>75.60675072811864</v>
       </c>
       <c r="N15" t="n">
-        <v>77.60783644498369</v>
+        <v>77.6078364449837</v>
       </c>
       <c r="O15" t="n">
-        <v>70.99600842562319</v>
+        <v>70.9960084256232</v>
       </c>
       <c r="P15" t="n">
-        <v>56.98055588022901</v>
+        <v>56.98055588022902</v>
       </c>
       <c r="Q15" t="n">
         <v>38.08999261192947</v>
       </c>
       <c r="R15" t="n">
-        <v>18.52672950159681</v>
+        <v>18.52672950159682</v>
       </c>
       <c r="S15" t="n">
-        <v>5.542575546712519</v>
+        <v>5.54257554671252</v>
       </c>
       <c r="T15" t="n">
         <v>1.2027454374094</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01963131834726986</v>
+        <v>0.01963131834726987</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,28 +32150,28 @@
         <v>0.2501652152231328</v>
       </c>
       <c r="H16" t="n">
-        <v>2.224196186256582</v>
+        <v>2.224196186256583</v>
       </c>
       <c r="I16" t="n">
-        <v>7.523150290528395</v>
+        <v>7.523150290528397</v>
       </c>
       <c r="J16" t="n">
         <v>17.68668071627549</v>
       </c>
       <c r="K16" t="n">
-        <v>29.06464955046942</v>
+        <v>29.06464955046943</v>
       </c>
       <c r="L16" t="n">
-        <v>37.19274481599195</v>
+        <v>37.19274481599196</v>
       </c>
       <c r="M16" t="n">
         <v>39.21453460084071</v>
       </c>
       <c r="N16" t="n">
-        <v>38.28210061682724</v>
+        <v>38.28210061682726</v>
       </c>
       <c r="O16" t="n">
-        <v>35.35971605717518</v>
+        <v>35.35971605717519</v>
       </c>
       <c r="P16" t="n">
         <v>30.25634566662325</v>
@@ -32183,7 +32183,7 @@
         <v>11.24833776812377</v>
       </c>
       <c r="S16" t="n">
-        <v>4.359697432570413</v>
+        <v>4.359697432570414</v>
       </c>
       <c r="T16" t="n">
         <v>1.068887737771567</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.220312284918847</v>
+        <v>2.219373299357744</v>
       </c>
       <c r="H17" t="n">
-        <v>22.73877318792515</v>
+        <v>22.7291568020475</v>
       </c>
       <c r="I17" t="n">
-        <v>85.59858936433396</v>
+        <v>85.56238912348951</v>
       </c>
       <c r="J17" t="n">
-        <v>188.4462297921312</v>
+        <v>188.3665345663645</v>
       </c>
       <c r="K17" t="n">
-        <v>282.4320488127461</v>
+        <v>282.3126063281778</v>
       </c>
       <c r="L17" t="n">
-        <v>350.3819309023314</v>
+        <v>350.2337519383975</v>
       </c>
       <c r="M17" t="n">
-        <v>389.8674094992569</v>
+        <v>389.7025318508507</v>
       </c>
       <c r="N17" t="n">
-        <v>396.1758717787826</v>
+        <v>396.008326237651</v>
       </c>
       <c r="O17" t="n">
-        <v>374.0976414956208</v>
+        <v>373.9394329921624</v>
       </c>
       <c r="P17" t="n">
-        <v>319.2836819616867</v>
+        <v>319.148654664268</v>
       </c>
       <c r="Q17" t="n">
-        <v>239.7687482580304</v>
+        <v>239.6673483810187</v>
       </c>
       <c r="R17" t="n">
-        <v>139.4716915675337</v>
+        <v>139.412708015781</v>
       </c>
       <c r="S17" t="n">
-        <v>50.59536619258829</v>
+        <v>50.57396905911464</v>
       </c>
       <c r="T17" t="n">
-        <v>9.719417027232261</v>
+        <v>9.715306617938529</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1776249827935078</v>
+        <v>0.1775498639486195</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.187971804143137</v>
+        <v>1.187469402576175</v>
       </c>
       <c r="H18" t="n">
-        <v>11.47330663475083</v>
+        <v>11.46845449330148</v>
       </c>
       <c r="I18" t="n">
-        <v>40.90166080054223</v>
+        <v>40.88436320273235</v>
       </c>
       <c r="J18" t="n">
-        <v>112.2372834782777</v>
+        <v>112.189817547778</v>
       </c>
       <c r="K18" t="n">
-        <v>191.8313943558679</v>
+        <v>191.7502675203817</v>
       </c>
       <c r="L18" t="n">
-        <v>257.9409831759036</v>
+        <v>257.8318981339191</v>
       </c>
       <c r="M18" t="n">
-        <v>301.0049610760922</v>
+        <v>300.8776639773054</v>
       </c>
       <c r="N18" t="n">
-        <v>308.9716667275609</v>
+        <v>308.8410004533535</v>
       </c>
       <c r="O18" t="n">
-        <v>282.6487125410209</v>
+        <v>282.5291784278498</v>
       </c>
       <c r="P18" t="n">
-        <v>226.8505105648417</v>
+        <v>226.7545739007084</v>
       </c>
       <c r="Q18" t="n">
-        <v>151.6435587183415</v>
+        <v>151.5794275990219</v>
       </c>
       <c r="R18" t="n">
-        <v>73.75845990986954</v>
+        <v>73.727266942405</v>
       </c>
       <c r="S18" t="n">
-        <v>22.06605522169378</v>
+        <v>22.05672333293903</v>
       </c>
       <c r="T18" t="n">
-        <v>4.788360035120801</v>
+        <v>4.78633500424344</v>
       </c>
       <c r="U18" t="n">
-        <v>0.07815603974625905</v>
+        <v>0.07812298701159048</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9959556540342952</v>
+        <v>0.9955344574373165</v>
       </c>
       <c r="H19" t="n">
-        <v>8.854951178595831</v>
+        <v>8.851206357942694</v>
       </c>
       <c r="I19" t="n">
-        <v>29.95110275950409</v>
+        <v>29.93843622911495</v>
       </c>
       <c r="J19" t="n">
-        <v>70.41406474022466</v>
+        <v>70.38428614081828</v>
       </c>
       <c r="K19" t="n">
-        <v>115.7119387141663</v>
+        <v>115.6630033277173</v>
       </c>
       <c r="L19" t="n">
-        <v>148.0714433279715</v>
+        <v>148.0088228811807</v>
       </c>
       <c r="M19" t="n">
-        <v>156.1205758410304</v>
+        <v>156.0545513599241</v>
       </c>
       <c r="N19" t="n">
-        <v>152.4083774941755</v>
+        <v>152.3439229276578</v>
       </c>
       <c r="O19" t="n">
-        <v>140.773804626593</v>
+        <v>140.71427040214</v>
       </c>
       <c r="P19" t="n">
-        <v>120.4563092842933</v>
+        <v>120.4053674704187</v>
       </c>
       <c r="Q19" t="n">
-        <v>83.39770481190813</v>
+        <v>83.36243534050112</v>
       </c>
       <c r="R19" t="n">
-        <v>44.78178786230566</v>
+        <v>44.76284933168152</v>
       </c>
       <c r="S19" t="n">
-        <v>17.35679080712494</v>
+        <v>17.34945049915759</v>
       </c>
       <c r="T19" t="n">
-        <v>4.25544688541926</v>
+        <v>4.25364722723217</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05432485385641617</v>
+        <v>0.05430187949658096</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.220312284918847</v>
+        <v>2.219373299357744</v>
       </c>
       <c r="H20" t="n">
-        <v>22.73877318792515</v>
+        <v>22.7291568020475</v>
       </c>
       <c r="I20" t="n">
-        <v>85.59858936433396</v>
+        <v>85.56238912348951</v>
       </c>
       <c r="J20" t="n">
-        <v>188.4462297921312</v>
+        <v>188.3665345663645</v>
       </c>
       <c r="K20" t="n">
-        <v>282.4320488127461</v>
+        <v>282.3126063281778</v>
       </c>
       <c r="L20" t="n">
-        <v>350.3819309023314</v>
+        <v>350.2337519383975</v>
       </c>
       <c r="M20" t="n">
-        <v>389.8674094992569</v>
+        <v>389.7025318508507</v>
       </c>
       <c r="N20" t="n">
-        <v>396.1758717787826</v>
+        <v>396.008326237651</v>
       </c>
       <c r="O20" t="n">
-        <v>374.0976414956208</v>
+        <v>373.9394329921624</v>
       </c>
       <c r="P20" t="n">
-        <v>319.2836819616867</v>
+        <v>319.148654664268</v>
       </c>
       <c r="Q20" t="n">
-        <v>239.7687482580304</v>
+        <v>239.6673483810187</v>
       </c>
       <c r="R20" t="n">
-        <v>139.4716915675337</v>
+        <v>139.412708015781</v>
       </c>
       <c r="S20" t="n">
-        <v>50.59536619258829</v>
+        <v>50.57396905911464</v>
       </c>
       <c r="T20" t="n">
-        <v>9.719417027232261</v>
+        <v>9.715306617938529</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1776249827935078</v>
+        <v>0.1775498639486195</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.187971804143137</v>
+        <v>1.187469402576175</v>
       </c>
       <c r="H21" t="n">
-        <v>11.47330663475083</v>
+        <v>11.46845449330148</v>
       </c>
       <c r="I21" t="n">
-        <v>40.90166080054223</v>
+        <v>40.88436320273235</v>
       </c>
       <c r="J21" t="n">
-        <v>112.2372834782777</v>
+        <v>112.189817547778</v>
       </c>
       <c r="K21" t="n">
-        <v>191.8313943558679</v>
+        <v>191.7502675203817</v>
       </c>
       <c r="L21" t="n">
-        <v>257.9409831759036</v>
+        <v>257.8318981339191</v>
       </c>
       <c r="M21" t="n">
-        <v>301.0049610760922</v>
+        <v>300.8776639773054</v>
       </c>
       <c r="N21" t="n">
-        <v>308.9716667275609</v>
+        <v>308.8410004533535</v>
       </c>
       <c r="O21" t="n">
-        <v>282.6487125410209</v>
+        <v>282.5291784278498</v>
       </c>
       <c r="P21" t="n">
-        <v>226.8505105648417</v>
+        <v>226.7545739007084</v>
       </c>
       <c r="Q21" t="n">
-        <v>151.6435587183415</v>
+        <v>151.5794275990219</v>
       </c>
       <c r="R21" t="n">
-        <v>73.75845990986954</v>
+        <v>73.727266942405</v>
       </c>
       <c r="S21" t="n">
-        <v>22.06605522169378</v>
+        <v>22.05672333293903</v>
       </c>
       <c r="T21" t="n">
-        <v>4.788360035120801</v>
+        <v>4.78633500424344</v>
       </c>
       <c r="U21" t="n">
-        <v>0.07815603974625905</v>
+        <v>0.07812298701159048</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9959556540342952</v>
+        <v>0.9955344574373165</v>
       </c>
       <c r="H22" t="n">
-        <v>8.854951178595831</v>
+        <v>8.851206357942694</v>
       </c>
       <c r="I22" t="n">
-        <v>29.95110275950409</v>
+        <v>29.93843622911495</v>
       </c>
       <c r="J22" t="n">
-        <v>70.41406474022466</v>
+        <v>70.38428614081828</v>
       </c>
       <c r="K22" t="n">
-        <v>115.7119387141663</v>
+        <v>115.6630033277173</v>
       </c>
       <c r="L22" t="n">
-        <v>148.0714433279715</v>
+        <v>148.0088228811807</v>
       </c>
       <c r="M22" t="n">
-        <v>156.1205758410304</v>
+        <v>156.0545513599241</v>
       </c>
       <c r="N22" t="n">
-        <v>152.4083774941755</v>
+        <v>152.3439229276578</v>
       </c>
       <c r="O22" t="n">
-        <v>140.773804626593</v>
+        <v>140.71427040214</v>
       </c>
       <c r="P22" t="n">
-        <v>120.4563092842933</v>
+        <v>120.4053674704187</v>
       </c>
       <c r="Q22" t="n">
-        <v>83.39770481190813</v>
+        <v>83.36243534050112</v>
       </c>
       <c r="R22" t="n">
-        <v>44.78178786230566</v>
+        <v>44.76284933168152</v>
       </c>
       <c r="S22" t="n">
-        <v>17.35679080712494</v>
+        <v>17.34945049915759</v>
       </c>
       <c r="T22" t="n">
-        <v>4.25544688541926</v>
+        <v>4.25364722723217</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05432485385641617</v>
+        <v>0.05430187949658096</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33997,7 +33997,7 @@
         <v>155.9354431879559</v>
       </c>
       <c r="R39" t="n">
-        <v>75.84600514598353</v>
+        <v>75.84600514598354</v>
       </c>
       <c r="S39" t="n">
         <v>22.69057867994065</v>
@@ -34453,7 +34453,7 @@
         <v>197.2606930954842</v>
       </c>
       <c r="L45" t="n">
-        <v>265.2413453483972</v>
+        <v>265.2413453483974</v>
       </c>
       <c r="M45" t="n">
         <v>309.5241393955542</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.799631206432579</v>
+        <v>3.799631206432586</v>
       </c>
       <c r="L2" t="n">
         <v>10.77088587362579</v>
       </c>
       <c r="M2" t="n">
-        <v>17.18295210907281</v>
+        <v>17.18295210907282</v>
       </c>
       <c r="N2" t="n">
-        <v>18.21830727030009</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="O2" t="n">
-        <v>15.01416230587069</v>
+        <v>15.0141623058707</v>
       </c>
       <c r="P2" t="n">
-        <v>7.151197092855988</v>
+        <v>7.151197092855995</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>4.473289392418824</v>
+        <v>4.473289392418831</v>
       </c>
       <c r="L3" t="n">
-        <v>13.61833703813649</v>
+        <v>13.6183370381365</v>
       </c>
       <c r="M3" t="n">
-        <v>9.397206256252941</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="N3" t="n">
-        <v>18.21830727030009</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="O3" t="n">
         <v>16.42269341674558</v>
       </c>
       <c r="P3" t="n">
-        <v>10.00730248430401</v>
+        <v>1.186201470256887</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34868,7 +34868,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0.6010854422309819</v>
+        <v>0.6010854422309855</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>3.799631206432579</v>
+        <v>3.799631206432586</v>
       </c>
       <c r="L5" t="n">
         <v>10.77088587362579</v>
       </c>
       <c r="M5" t="n">
-        <v>17.18295210907281</v>
+        <v>17.18295210907282</v>
       </c>
       <c r="N5" t="n">
-        <v>18.21830727030009</v>
+        <v>18.2183072703001</v>
       </c>
       <c r="O5" t="n">
-        <v>15.01416230587069</v>
+        <v>15.0141623058707</v>
       </c>
       <c r="P5" t="n">
-        <v>7.151197092855988</v>
+        <v>7.151197092855995</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>4.473289392418824</v>
+        <v>4.473289392418831</v>
       </c>
       <c r="L6" t="n">
-        <v>13.61833703813649</v>
+        <v>13.6183370381365</v>
       </c>
       <c r="M6" t="n">
-        <v>9.397206256252941</v>
+        <v>18.2183072703001</v>
       </c>
       <c r="N6" t="n">
-        <v>18.21830727030009</v>
+        <v>18.2183072703001</v>
       </c>
       <c r="O6" t="n">
-        <v>16.42269341674558</v>
+        <v>7.601592402698424</v>
       </c>
       <c r="P6" t="n">
-        <v>10.00730248430401</v>
+        <v>10.00730248430402</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35105,7 +35105,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0.6010854422309819</v>
+        <v>0.6010854422309855</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>6.601146109817535</v>
+        <v>6.787925067696158</v>
       </c>
       <c r="L8" t="n">
-        <v>14.24641283816827</v>
+        <v>14.47812865154194</v>
       </c>
       <c r="M8" t="n">
-        <v>21.05014551947929</v>
+        <v>21.3079740087149</v>
       </c>
       <c r="N8" t="n">
-        <v>22.14807591311318</v>
+        <v>22.41007633685602</v>
       </c>
       <c r="O8" t="n">
-        <v>18.72493140015998</v>
+        <v>18.97233097084302</v>
       </c>
       <c r="P8" t="n">
-        <v>10.3182526631547</v>
+        <v>10.52940247294131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>6.376113496426196</v>
+        <v>6.502976110201125</v>
       </c>
       <c r="L9" t="n">
-        <v>16.17691886905387</v>
+        <v>16.34750130909319</v>
       </c>
       <c r="M9" t="n">
-        <v>22.0549650193614</v>
+        <v>22.25402668103339</v>
       </c>
       <c r="N9" t="n">
-        <v>23.50971295904439</v>
+        <v>17.4602566149747</v>
       </c>
       <c r="O9" t="n">
-        <v>12.71376404365013</v>
+        <v>19.41327970513236</v>
       </c>
       <c r="P9" t="n">
-        <v>12.25749005635695</v>
+        <v>12.4075116354789</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>0.1002854526796213</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35336,13 +35336,13 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2924492011629169</v>
+        <v>0.3903723299035917</v>
       </c>
       <c r="M10" t="n">
-        <v>0.8431658598428022</v>
+        <v>0.9464120692640705</v>
       </c>
       <c r="N10" t="n">
-        <v>2.112862674119203</v>
+        <v>2.213653919447058</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>17.9141677348139</v>
+        <v>17.91416773481392</v>
       </c>
       <c r="K11" t="n">
-        <v>35.1769858018947</v>
+        <v>35.17698580189472</v>
       </c>
       <c r="L11" t="n">
-        <v>49.69726882478398</v>
+        <v>49.69726882478401</v>
       </c>
       <c r="M11" t="n">
-        <v>60.49605345325833</v>
+        <v>60.49605345325834</v>
       </c>
       <c r="N11" t="n">
-        <v>62.23225987668784</v>
+        <v>62.23225987668787</v>
       </c>
       <c r="O11" t="n">
-        <v>56.57528966332808</v>
+        <v>56.57528966332809</v>
       </c>
       <c r="P11" t="n">
-        <v>42.62265774178103</v>
+        <v>42.62265774178104</v>
       </c>
       <c r="Q11" t="n">
-        <v>24.10069815048837</v>
+        <v>24.10069815048838</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>7.580767567902665</v>
+        <v>7.580767567902672</v>
       </c>
       <c r="K12" t="n">
         <v>25.78518267276229</v>
       </c>
       <c r="L12" t="n">
-        <v>42.2748076045434</v>
+        <v>42.27480760454341</v>
       </c>
       <c r="M12" t="n">
-        <v>52.50997021579064</v>
+        <v>52.50997021579066</v>
       </c>
       <c r="N12" t="n">
-        <v>56.26480823144203</v>
+        <v>56.26480823144204</v>
       </c>
       <c r="O12" t="n">
-        <v>47.82411870340097</v>
+        <v>47.82411870340098</v>
       </c>
       <c r="P12" t="n">
-        <v>35.20971467540034</v>
+        <v>35.20971467540036</v>
       </c>
       <c r="Q12" t="n">
-        <v>15.34295432295097</v>
+        <v>15.34295432295098</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>8.099995097757425</v>
+        <v>8.099995097757429</v>
       </c>
       <c r="L13" t="n">
-        <v>15.27398492029073</v>
+        <v>15.27398492029074</v>
       </c>
       <c r="M13" t="n">
-        <v>16.63909470935489</v>
+        <v>16.6390947093549</v>
       </c>
       <c r="N13" t="n">
-        <v>17.53319964122685</v>
+        <v>17.53319964122687</v>
       </c>
       <c r="O13" t="n">
-        <v>12.86052855875073</v>
+        <v>12.86052855875074</v>
       </c>
       <c r="P13" t="n">
-        <v>7.875545008636763</v>
+        <v>7.87554500863677</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>17.9141677348139</v>
+        <v>17.91416773481392</v>
       </c>
       <c r="K14" t="n">
-        <v>35.1769858018947</v>
+        <v>35.17698580189472</v>
       </c>
       <c r="L14" t="n">
-        <v>49.69726882478398</v>
+        <v>49.69726882478401</v>
       </c>
       <c r="M14" t="n">
-        <v>60.49605345325833</v>
+        <v>60.49605345325834</v>
       </c>
       <c r="N14" t="n">
-        <v>62.23225987668784</v>
+        <v>62.23225987668787</v>
       </c>
       <c r="O14" t="n">
-        <v>56.57528966332808</v>
+        <v>56.57528966332809</v>
       </c>
       <c r="P14" t="n">
-        <v>42.62265774178103</v>
+        <v>42.62265774178104</v>
       </c>
       <c r="Q14" t="n">
-        <v>24.10069815048837</v>
+        <v>24.10069815048838</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>7.580767567902665</v>
+        <v>7.580767567902672</v>
       </c>
       <c r="K15" t="n">
         <v>25.78518267276229</v>
       </c>
       <c r="L15" t="n">
-        <v>42.2748076045434</v>
+        <v>42.27480760454341</v>
       </c>
       <c r="M15" t="n">
-        <v>52.50997021579064</v>
+        <v>52.50997021579066</v>
       </c>
       <c r="N15" t="n">
-        <v>56.26480823144203</v>
+        <v>56.26480823144204</v>
       </c>
       <c r="O15" t="n">
-        <v>47.82411870340097</v>
+        <v>47.82411870340098</v>
       </c>
       <c r="P15" t="n">
-        <v>35.20971467540034</v>
+        <v>35.20971467540036</v>
       </c>
       <c r="Q15" t="n">
-        <v>15.34295432295097</v>
+        <v>15.34295432295098</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>8.099995097757425</v>
+        <v>8.099995097757429</v>
       </c>
       <c r="L16" t="n">
-        <v>15.27398492029073</v>
+        <v>15.27398492029074</v>
       </c>
       <c r="M16" t="n">
-        <v>16.63909470935489</v>
+        <v>16.6390947093549</v>
       </c>
       <c r="N16" t="n">
-        <v>17.53319964122685</v>
+        <v>17.53319964122687</v>
       </c>
       <c r="O16" t="n">
-        <v>12.86052855875073</v>
+        <v>12.86052855875074</v>
       </c>
       <c r="P16" t="n">
-        <v>7.875545008636763</v>
+        <v>7.87554500863677</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>51.05068682037046</v>
+        <v>51.01448657952601</v>
       </c>
       <c r="J17" t="n">
-        <v>159.0262703065447</v>
+        <v>158.946575080778</v>
       </c>
       <c r="K17" t="n">
-        <v>246.6674480179367</v>
+        <v>246.5480055333685</v>
       </c>
       <c r="L17" t="n">
-        <v>312.0698884697084</v>
+        <v>311.9217095057745</v>
       </c>
       <c r="M17" t="n">
-        <v>352.4361465998251</v>
+        <v>352.2712689514189</v>
       </c>
       <c r="N17" t="n">
-        <v>358.8962489443366</v>
+        <v>358.728703403205</v>
       </c>
       <c r="O17" t="n">
-        <v>336.7066821395967</v>
+        <v>336.5484736361383</v>
       </c>
       <c r="P17" t="n">
-        <v>281.7083201514554</v>
+        <v>281.5732928540367</v>
       </c>
       <c r="Q17" t="n">
-        <v>203.6440736534323</v>
+        <v>203.5426737764207</v>
       </c>
       <c r="R17" t="n">
-        <v>104.4390416727372</v>
+        <v>104.3800581209845</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>24.72927405054223</v>
+        <v>24.71197645273234</v>
       </c>
       <c r="J18" t="n">
-        <v>91.6261691449444</v>
+        <v>91.57870321444469</v>
       </c>
       <c r="K18" t="n">
-        <v>169.4321605225346</v>
+        <v>169.3510336870484</v>
       </c>
       <c r="L18" t="n">
-        <v>235.425896461674</v>
+        <v>235.3168114196895</v>
       </c>
       <c r="M18" t="n">
-        <v>277.9081805637642</v>
+        <v>277.7808834649774</v>
       </c>
       <c r="N18" t="n">
-        <v>287.6286385140193</v>
+        <v>287.4979722398118</v>
       </c>
       <c r="O18" t="n">
-        <v>259.4768228187987</v>
+        <v>259.3572887056276</v>
       </c>
       <c r="P18" t="n">
-        <v>205.0796693600131</v>
+        <v>204.9837326958797</v>
       </c>
       <c r="Q18" t="n">
-        <v>128.896520429363</v>
+        <v>128.8323893100434</v>
       </c>
       <c r="R18" t="n">
-        <v>50.0855405157254</v>
+        <v>50.05434754826085</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>49.7773087563228</v>
+        <v>49.74753015691641</v>
       </c>
       <c r="K19" t="n">
-        <v>94.74728426145427</v>
+        <v>94.69834887500529</v>
       </c>
       <c r="L19" t="n">
-        <v>126.1526834322703</v>
+        <v>126.0900629854795</v>
       </c>
       <c r="M19" t="n">
-        <v>133.5451359495446</v>
+        <v>133.4791114684382</v>
       </c>
       <c r="N19" t="n">
-        <v>131.6594765185751</v>
+        <v>131.5950219520574</v>
       </c>
       <c r="O19" t="n">
-        <v>118.2746171281685</v>
+        <v>118.2150829037156</v>
       </c>
       <c r="P19" t="n">
-        <v>98.07550862630677</v>
+        <v>98.02456681243218</v>
       </c>
       <c r="Q19" t="n">
-        <v>58.77814204712318</v>
+        <v>58.74287257571618</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>51.05068682037046</v>
+        <v>51.01448657952601</v>
       </c>
       <c r="J20" t="n">
-        <v>159.0262703065447</v>
+        <v>158.946575080778</v>
       </c>
       <c r="K20" t="n">
-        <v>246.6674480179367</v>
+        <v>246.5480055333685</v>
       </c>
       <c r="L20" t="n">
-        <v>312.0698884697084</v>
+        <v>311.9217095057745</v>
       </c>
       <c r="M20" t="n">
-        <v>352.4361465998251</v>
+        <v>352.2712689514189</v>
       </c>
       <c r="N20" t="n">
-        <v>358.8962489443366</v>
+        <v>358.728703403205</v>
       </c>
       <c r="O20" t="n">
-        <v>336.7066821395967</v>
+        <v>336.5484736361383</v>
       </c>
       <c r="P20" t="n">
-        <v>281.7083201514554</v>
+        <v>281.5732928540367</v>
       </c>
       <c r="Q20" t="n">
-        <v>203.6440736534323</v>
+        <v>203.5426737764207</v>
       </c>
       <c r="R20" t="n">
-        <v>104.4390416727372</v>
+        <v>104.3800581209845</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>24.72927405054223</v>
+        <v>24.71197645273234</v>
       </c>
       <c r="J21" t="n">
-        <v>91.6261691449444</v>
+        <v>91.57870321444469</v>
       </c>
       <c r="K21" t="n">
-        <v>169.4321605225346</v>
+        <v>169.3510336870484</v>
       </c>
       <c r="L21" t="n">
-        <v>235.425896461674</v>
+        <v>235.3168114196895</v>
       </c>
       <c r="M21" t="n">
-        <v>277.9081805637642</v>
+        <v>277.7808834649774</v>
       </c>
       <c r="N21" t="n">
-        <v>287.6286385140193</v>
+        <v>287.4979722398118</v>
       </c>
       <c r="O21" t="n">
-        <v>259.4768228187987</v>
+        <v>259.3572887056276</v>
       </c>
       <c r="P21" t="n">
-        <v>205.0796693600131</v>
+        <v>204.9837326958797</v>
       </c>
       <c r="Q21" t="n">
-        <v>128.896520429363</v>
+        <v>128.8323893100434</v>
       </c>
       <c r="R21" t="n">
-        <v>50.0855405157254</v>
+        <v>50.05434754826085</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>49.7773087563228</v>
+        <v>49.74753015691641</v>
       </c>
       <c r="K22" t="n">
-        <v>94.74728426145427</v>
+        <v>94.69834887500529</v>
       </c>
       <c r="L22" t="n">
-        <v>126.1526834322703</v>
+        <v>126.0900629854795</v>
       </c>
       <c r="M22" t="n">
-        <v>133.5451359495446</v>
+        <v>133.4791114684382</v>
       </c>
       <c r="N22" t="n">
-        <v>131.6594765185751</v>
+        <v>131.5950219520574</v>
       </c>
       <c r="O22" t="n">
-        <v>118.2746171281685</v>
+        <v>118.2150829037156</v>
       </c>
       <c r="P22" t="n">
-        <v>98.07550862630677</v>
+        <v>98.02456681243218</v>
       </c>
       <c r="Q22" t="n">
-        <v>58.77814204712318</v>
+        <v>58.74287257571618</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -37645,7 +37645,7 @@
         <v>133.1884048989774</v>
       </c>
       <c r="R39" t="n">
-        <v>52.17308575183938</v>
+        <v>52.17308575183939</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -38101,7 +38101,7 @@
         <v>174.8614592621509</v>
       </c>
       <c r="L45" t="n">
-        <v>242.7262586341677</v>
+        <v>242.7262586341678</v>
       </c>
       <c r="M45" t="n">
         <v>286.4273588832262</v>
